--- a/SO SACH/0310686815/2013/BANGKE - 13.xlsx
+++ b/SO SACH/0310686815/2013/BANGKE - 13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="706">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -2309,6 +2309,12 @@
   </si>
   <si>
     <t>Thùng carton</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -3010,18 +3016,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3043,14 +3037,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3064,29 +3061,23 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3106,6 +3097,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3123,30 +3153,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3189,7 +3195,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3394,7 +3400,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,10 +3862,10 @@
   </sheetPr>
   <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G184" sqref="G184"/>
+      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,7 +3874,7 @@
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
@@ -3915,70 +3921,70 @@
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
     </row>
     <row r="5" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
     </row>
     <row r="6" spans="1:15" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="120" t="str">
-        <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 2 Năm 2012</v>
-      </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
+      <c r="B7" s="127" t="str">
+        <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F23)</f>
+        <v>Kỳ tính thuế: Quý 3 Năm 2012</v>
+      </c>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
     </row>
     <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
@@ -4003,67 +4009,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="122" t="s">
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="122" t="s">
+      <c r="J12" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="124"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="124"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="41" t="s">
         <v>43</v>
       </c>
@@ -4076,19 +4082,19 @@
       <c r="F14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
       <c r="N14" s="117" t="str">
-        <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
-        <v>28</v>
-      </c>
-      <c r="O14" s="116">
-        <v>2</v>
+        <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11,$O$14="q3"),"30",IF($O$14=2,"28","31"))</f>
+        <v>30</v>
+      </c>
+      <c r="O14" s="116" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -5573,8 +5579,8 @@
       <c r="L51" s="61">
         <v>260000</v>
       </c>
-      <c r="M51" s="62">
-        <v>7</v>
+      <c r="M51" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N51" s="54"/>
       <c r="O51" s="55"/>
@@ -5614,8 +5620,8 @@
       <c r="L52" s="61">
         <v>256000</v>
       </c>
-      <c r="M52" s="62">
-        <v>7</v>
+      <c r="M52" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N52" s="54"/>
       <c r="O52" s="55"/>
@@ -5655,8 +5661,8 @@
       <c r="L53" s="61">
         <v>46258</v>
       </c>
-      <c r="M53" s="62">
-        <v>7</v>
+      <c r="M53" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N53" s="54"/>
       <c r="O53" s="55"/>
@@ -5696,8 +5702,8 @@
       <c r="L54" s="61">
         <v>136000</v>
       </c>
-      <c r="M54" s="62">
-        <v>7</v>
+      <c r="M54" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N54" s="54"/>
       <c r="O54" s="55"/>
@@ -5737,8 +5743,8 @@
       <c r="L55" s="61">
         <v>366000</v>
       </c>
-      <c r="M55" s="62">
-        <v>7</v>
+      <c r="M55" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N55" s="54"/>
       <c r="O55" s="55"/>
@@ -5778,8 +5784,8 @@
       <c r="L56" s="61">
         <v>390000</v>
       </c>
-      <c r="M56" s="62">
-        <v>8</v>
+      <c r="M56" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N56" s="54"/>
       <c r="O56" s="55"/>
@@ -5819,8 +5825,8 @@
       <c r="L57" s="61">
         <v>63455</v>
       </c>
-      <c r="M57" s="62">
-        <v>8</v>
+      <c r="M57" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N57" s="54"/>
       <c r="O57" s="55"/>
@@ -5860,8 +5866,8 @@
       <c r="L58" s="61">
         <v>132000</v>
       </c>
-      <c r="M58" s="62">
-        <v>8</v>
+      <c r="M58" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N58" s="54"/>
       <c r="O58" s="55"/>
@@ -5901,8 +5907,8 @@
       <c r="L59" s="61">
         <v>169470</v>
       </c>
-      <c r="M59" s="62">
-        <v>8</v>
+      <c r="M59" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N59" s="54"/>
       <c r="O59" s="55"/>
@@ -5942,8 +5948,8 @@
       <c r="L60" s="61">
         <v>124000</v>
       </c>
-      <c r="M60" s="62">
-        <v>8</v>
+      <c r="M60" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N60" s="54"/>
       <c r="O60" s="55"/>
@@ -5983,8 +5989,8 @@
       <c r="L61" s="61">
         <v>134000</v>
       </c>
-      <c r="M61" s="62">
-        <v>8</v>
+      <c r="M61" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N61" s="54"/>
       <c r="O61" s="55"/>
@@ -6024,8 +6030,8 @@
       <c r="L62" s="61">
         <v>40643</v>
       </c>
-      <c r="M62" s="62">
-        <v>9</v>
+      <c r="M62" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N62" s="54"/>
       <c r="O62" s="55"/>
@@ -6065,8 +6071,8 @@
       <c r="L63" s="61">
         <v>524000</v>
       </c>
-      <c r="M63" s="62">
-        <v>9</v>
+      <c r="M63" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N63" s="54"/>
       <c r="O63" s="55"/>
@@ -6106,8 +6112,8 @@
       <c r="L64" s="61">
         <v>200000</v>
       </c>
-      <c r="M64" s="62">
-        <v>10</v>
+      <c r="M64" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N64" s="54"/>
       <c r="O64" s="55"/>
@@ -6147,8 +6153,8 @@
       <c r="L65" s="61">
         <v>390000</v>
       </c>
-      <c r="M65" s="62">
-        <v>10</v>
+      <c r="M65" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N65" s="54"/>
       <c r="O65" s="55"/>
@@ -6188,8 +6194,8 @@
       <c r="L66" s="61">
         <v>138000</v>
       </c>
-      <c r="M66" s="62">
-        <v>10</v>
+      <c r="M66" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N66" s="54"/>
       <c r="O66" s="55"/>
@@ -6229,8 +6235,8 @@
       <c r="L67" s="61">
         <v>458000</v>
       </c>
-      <c r="M67" s="62">
-        <v>11</v>
+      <c r="M67" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N67" s="54"/>
       <c r="O67" s="55"/>
@@ -6270,8 +6276,8 @@
       <c r="L68" s="61">
         <v>134000</v>
       </c>
-      <c r="M68" s="62">
-        <v>11</v>
+      <c r="M68" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N68" s="54"/>
       <c r="O68" s="55"/>
@@ -6311,8 +6317,8 @@
       <c r="L69" s="61">
         <v>44847</v>
       </c>
-      <c r="M69" s="62">
-        <v>12</v>
+      <c r="M69" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N69" s="54"/>
       <c r="O69" s="55"/>
@@ -6352,8 +6358,8 @@
       <c r="L70" s="61">
         <v>186619</v>
       </c>
-      <c r="M70" s="62">
-        <v>12</v>
+      <c r="M70" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N70" s="54"/>
       <c r="O70" s="55"/>
@@ -6393,8 +6399,8 @@
       <c r="L71" s="61">
         <v>260000</v>
       </c>
-      <c r="M71" s="62">
-        <v>12</v>
+      <c r="M71" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N71" s="54"/>
       <c r="O71" s="55"/>
@@ -6434,8 +6440,8 @@
       <c r="L72" s="61">
         <v>140000</v>
       </c>
-      <c r="M72" s="62">
-        <v>12</v>
+      <c r="M72" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N72" s="54"/>
       <c r="O72" s="55"/>
@@ -6557,8 +6563,8 @@
       <c r="L75" s="61">
         <v>250000</v>
       </c>
-      <c r="M75" s="62">
-        <v>7</v>
+      <c r="M75" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N75" s="54"/>
       <c r="O75" s="55"/>
@@ -6680,8 +6686,8 @@
       <c r="L78" s="61">
         <v>250000</v>
       </c>
-      <c r="M78" s="62">
-        <v>7</v>
+      <c r="M78" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N78" s="54"/>
       <c r="O78" s="55"/>
@@ -6721,8 +6727,8 @@
       <c r="L79" s="61">
         <v>250000</v>
       </c>
-      <c r="M79" s="62">
-        <v>9</v>
+      <c r="M79" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N79" s="54"/>
       <c r="O79" s="55"/>
@@ -6762,8 +6768,8 @@
       <c r="L80" s="61">
         <v>302400</v>
       </c>
-      <c r="M80" s="62">
-        <v>11</v>
+      <c r="M80" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N80" s="54"/>
       <c r="O80" s="55"/>
@@ -9024,8 +9030,8 @@
       <c r="L138" s="61">
         <v>1531325</v>
       </c>
-      <c r="M138" s="62">
-        <v>7</v>
+      <c r="M138" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N138" s="54"/>
       <c r="O138" s="55"/>
@@ -9063,8 +9069,8 @@
       <c r="L139" s="61">
         <v>1196410</v>
       </c>
-      <c r="M139" s="62">
-        <v>7</v>
+      <c r="M139" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N139" s="54"/>
       <c r="O139" s="55"/>
@@ -9102,8 +9108,8 @@
       <c r="L140" s="61">
         <v>1639837</v>
       </c>
-      <c r="M140" s="62">
-        <v>7</v>
+      <c r="M140" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N140" s="54"/>
       <c r="O140" s="55"/>
@@ -9141,8 +9147,8 @@
       <c r="L141" s="61">
         <v>2697207</v>
       </c>
-      <c r="M141" s="62">
-        <v>7</v>
+      <c r="M141" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N141" s="54"/>
       <c r="O141" s="55"/>
@@ -9180,8 +9186,8 @@
       <c r="L142" s="61">
         <v>2349750</v>
       </c>
-      <c r="M142" s="62">
-        <v>7</v>
+      <c r="M142" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N142" s="54"/>
       <c r="O142" s="55"/>
@@ -9219,8 +9225,8 @@
       <c r="L143" s="61">
         <v>1259960</v>
       </c>
-      <c r="M143" s="62">
-        <v>7</v>
+      <c r="M143" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N143" s="54"/>
       <c r="O143" s="55"/>
@@ -9258,8 +9264,8 @@
       <c r="L144" s="61">
         <v>739092</v>
       </c>
-      <c r="M144" s="62">
-        <v>7</v>
+      <c r="M144" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N144" s="54"/>
       <c r="O144" s="55"/>
@@ -9297,8 +9303,8 @@
       <c r="L145" s="61">
         <v>718125</v>
       </c>
-      <c r="M145" s="62">
-        <v>7</v>
+      <c r="M145" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N145" s="54"/>
       <c r="O145" s="55"/>
@@ -9336,8 +9342,8 @@
       <c r="L146" s="61">
         <v>1321875</v>
       </c>
-      <c r="M146" s="62">
-        <v>7</v>
+      <c r="M146" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N146" s="54"/>
       <c r="O146" s="55"/>
@@ -9375,8 +9381,8 @@
       <c r="L147" s="61">
         <v>6261347</v>
       </c>
-      <c r="M147" s="62">
-        <v>7</v>
+      <c r="M147" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N147" s="54"/>
       <c r="O147" s="55"/>
@@ -9414,8 +9420,8 @@
       <c r="L148" s="61">
         <v>788185</v>
       </c>
-      <c r="M148" s="62">
-        <v>8</v>
+      <c r="M148" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N148" s="54"/>
       <c r="O148" s="55"/>
@@ -9453,8 +9459,8 @@
       <c r="L149" s="61">
         <v>2730087</v>
       </c>
-      <c r="M149" s="62">
-        <v>7</v>
+      <c r="M149" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N149" s="54"/>
       <c r="O149" s="55"/>
@@ -9492,8 +9498,8 @@
       <c r="L150" s="61">
         <v>2655980</v>
       </c>
-      <c r="M150" s="62">
-        <v>7</v>
+      <c r="M150" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N150" s="54"/>
       <c r="O150" s="55"/>
@@ -9531,8 +9537,8 @@
       <c r="L151" s="61">
         <v>4453804</v>
       </c>
-      <c r="M151" s="62">
-        <v>7</v>
+      <c r="M151" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N151" s="54"/>
       <c r="O151" s="55"/>
@@ -9570,8 +9576,8 @@
       <c r="L152" s="61">
         <v>674604</v>
       </c>
-      <c r="M152" s="62">
-        <v>7</v>
+      <c r="M152" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N152" s="54"/>
       <c r="O152" s="55"/>
@@ -9609,8 +9615,8 @@
       <c r="L153" s="61">
         <v>102564</v>
       </c>
-      <c r="M153" s="62">
-        <v>7</v>
+      <c r="M153" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N153" s="54"/>
       <c r="O153" s="55"/>
@@ -9648,8 +9654,8 @@
       <c r="L154" s="61">
         <v>3104098</v>
       </c>
-      <c r="M154" s="62">
-        <v>8</v>
+      <c r="M154" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N154" s="54"/>
       <c r="O154" s="55"/>
@@ -9687,8 +9693,8 @@
       <c r="L155" s="61">
         <v>1381405</v>
       </c>
-      <c r="M155" s="62">
-        <v>8</v>
+      <c r="M155" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N155" s="54"/>
       <c r="O155" s="55"/>
@@ -9726,8 +9732,8 @@
       <c r="L156" s="61">
         <v>2102300</v>
       </c>
-      <c r="M156" s="62">
-        <v>8</v>
+      <c r="M156" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N156" s="54"/>
       <c r="O156" s="55"/>
@@ -9765,8 +9771,8 @@
       <c r="L157" s="61">
         <v>123444</v>
       </c>
-      <c r="M157" s="62">
-        <v>8</v>
+      <c r="M157" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N157" s="54"/>
       <c r="O157" s="55"/>
@@ -9804,8 +9810,8 @@
       <c r="L158" s="61">
         <v>1225984</v>
       </c>
-      <c r="M158" s="62">
-        <v>8</v>
+      <c r="M158" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N158" s="54"/>
       <c r="O158" s="55"/>
@@ -9843,8 +9849,8 @@
       <c r="L159" s="61">
         <v>1659400</v>
       </c>
-      <c r="M159" s="62">
-        <v>9</v>
+      <c r="M159" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N159" s="54"/>
       <c r="O159" s="55"/>
@@ -9882,8 +9888,8 @@
       <c r="L160" s="61">
         <v>3948103</v>
       </c>
-      <c r="M160" s="62">
-        <v>8</v>
+      <c r="M160" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N160" s="54"/>
       <c r="O160" s="55"/>
@@ -9921,8 +9927,8 @@
       <c r="L161" s="61">
         <v>6024950</v>
       </c>
-      <c r="M161" s="62">
-        <v>8</v>
+      <c r="M161" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N161" s="54"/>
       <c r="O161" s="55"/>
@@ -9960,8 +9966,8 @@
       <c r="L162" s="61">
         <v>4629800</v>
       </c>
-      <c r="M162" s="62">
-        <v>8</v>
+      <c r="M162" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N162" s="54"/>
       <c r="O162" s="55"/>
@@ -9999,8 +10005,8 @@
       <c r="L163" s="61">
         <v>760500</v>
       </c>
-      <c r="M163" s="62">
-        <v>8</v>
+      <c r="M163" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N163" s="54"/>
       <c r="O163" s="55"/>
@@ -10038,8 +10044,8 @@
       <c r="L164" s="61">
         <v>1230691</v>
       </c>
-      <c r="M164" s="62">
-        <v>8</v>
+      <c r="M164" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N164" s="54"/>
       <c r="O164" s="55"/>
@@ -10077,8 +10083,8 @@
       <c r="L165" s="61">
         <v>2131465</v>
       </c>
-      <c r="M165" s="62">
-        <v>8</v>
+      <c r="M165" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N165" s="54"/>
       <c r="O165" s="55"/>
@@ -10116,8 +10122,8 @@
       <c r="L166" s="61">
         <v>2949408</v>
       </c>
-      <c r="M166" s="62">
-        <v>8</v>
+      <c r="M166" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N166" s="54"/>
       <c r="O166" s="55"/>
@@ -10155,8 +10161,8 @@
       <c r="L167" s="61">
         <v>1246089</v>
       </c>
-      <c r="M167" s="62">
-        <v>8</v>
+      <c r="M167" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N167" s="54"/>
       <c r="O167" s="55"/>
@@ -10194,8 +10200,8 @@
       <c r="L168" s="61">
         <v>733620</v>
       </c>
-      <c r="M168" s="62">
-        <v>9</v>
+      <c r="M168" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N168" s="54"/>
       <c r="O168" s="55"/>
@@ -10233,8 +10239,8 @@
       <c r="L169" s="61">
         <v>833420</v>
       </c>
-      <c r="M169" s="62">
-        <v>9</v>
+      <c r="M169" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N169" s="54"/>
       <c r="O169" s="55"/>
@@ -10272,8 +10278,8 @@
       <c r="L170" s="61">
         <v>2630250</v>
       </c>
-      <c r="M170" s="62">
-        <v>9</v>
+      <c r="M170" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N170" s="54"/>
       <c r="O170" s="55"/>
@@ -10311,8 +10317,8 @@
       <c r="L171" s="61">
         <v>2966882</v>
       </c>
-      <c r="M171" s="62">
-        <v>9</v>
+      <c r="M171" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N171" s="54"/>
       <c r="O171" s="55"/>
@@ -10350,8 +10356,8 @@
       <c r="L172" s="61">
         <v>1997900</v>
       </c>
-      <c r="M172" s="62">
-        <v>9</v>
+      <c r="M172" s="62" t="s">
+        <v>704</v>
       </c>
       <c r="N172" s="54"/>
       <c r="O172" s="55"/>
@@ -10389,8 +10395,8 @@
       <c r="L173" s="61">
         <v>5993700</v>
       </c>
-      <c r="M173" s="62">
-        <v>10</v>
+      <c r="M173" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N173" s="54"/>
       <c r="O173" s="55"/>
@@ -10428,8 +10434,8 @@
       <c r="L174" s="61">
         <v>3257642</v>
       </c>
-      <c r="M174" s="62">
-        <v>10</v>
+      <c r="M174" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N174" s="54"/>
       <c r="O174" s="55"/>
@@ -10467,8 +10473,8 @@
       <c r="L175" s="61">
         <v>8681460</v>
       </c>
-      <c r="M175" s="62">
-        <v>10</v>
+      <c r="M175" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N175" s="54"/>
       <c r="O175" s="55"/>
@@ -10506,8 +10512,8 @@
       <c r="L176" s="61">
         <v>1038786</v>
       </c>
-      <c r="M176" s="62">
-        <v>10</v>
+      <c r="M176" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N176" s="54"/>
       <c r="O176" s="55"/>
@@ -10545,8 +10551,8 @@
       <c r="L177" s="61">
         <v>458925</v>
       </c>
-      <c r="M177" s="62">
-        <v>10</v>
+      <c r="M177" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N177" s="54"/>
       <c r="O177" s="55"/>
@@ -10584,8 +10590,8 @@
       <c r="L178" s="61">
         <v>372560</v>
       </c>
-      <c r="M178" s="62">
-        <v>10</v>
+      <c r="M178" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N178" s="54"/>
       <c r="O178" s="55"/>
@@ -10623,8 +10629,8 @@
       <c r="L179" s="61">
         <v>1813698</v>
       </c>
-      <c r="M179" s="62">
-        <v>12</v>
+      <c r="M179" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N179" s="54"/>
       <c r="O179" s="55"/>
@@ -10662,8 +10668,8 @@
       <c r="L180" s="61">
         <v>1814215</v>
       </c>
-      <c r="M180" s="62">
-        <v>12</v>
+      <c r="M180" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N180" s="54"/>
       <c r="O180" s="55"/>
@@ -10701,8 +10707,8 @@
       <c r="L181" s="61">
         <v>1816551</v>
       </c>
-      <c r="M181" s="62">
-        <v>12</v>
+      <c r="M181" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N181" s="54"/>
       <c r="O181" s="55"/>
@@ -10740,8 +10746,8 @@
       <c r="L182" s="61">
         <v>1630169</v>
       </c>
-      <c r="M182" s="62">
-        <v>12</v>
+      <c r="M182" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N182" s="54"/>
       <c r="O182" s="55"/>
@@ -10779,8 +10785,8 @@
       <c r="L183" s="61">
         <v>1033069</v>
       </c>
-      <c r="M183" s="62">
-        <v>12</v>
+      <c r="M183" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N183" s="54"/>
       <c r="O183" s="55"/>
@@ -10818,8 +10824,8 @@
       <c r="L184" s="61">
         <v>766009</v>
       </c>
-      <c r="M184" s="62">
-        <v>12</v>
+      <c r="M184" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N184" s="54"/>
       <c r="O184" s="55"/>
@@ -10857,8 +10863,8 @@
       <c r="L185" s="61">
         <v>914692</v>
       </c>
-      <c r="M185" s="62">
-        <v>12</v>
+      <c r="M185" s="62" t="s">
+        <v>705</v>
       </c>
       <c r="N185" s="54"/>
       <c r="O185" s="55"/>
@@ -11143,8 +11149,8 @@
       <c r="H202" s="37"/>
       <c r="I202" s="37"/>
       <c r="J202" s="113" t="str">
-        <f>"Bình Chánh, Ngày  "&amp;N14&amp;"   Tháng   "&amp;O14&amp;"   Năm  "&amp;YEAR(F49)</f>
-        <v>Bình Chánh, Ngày  28   Tháng   2   Năm  2012</v>
+        <f>"Bình Chánh,  Ngày   "&amp;N14&amp;IF(O14="Q4","   Tháng   12",IF(O14="Q3", "   Tháng   9   ","   Tháng   "&amp;O14))&amp;"   Năm  "&amp;YEAR(F135)</f>
+        <v>Bình Chánh,  Ngày   30   Tháng   9      Năm  2012</v>
       </c>
       <c r="K202" s="113"/>
       <c r="N202" s="55"/>
@@ -11207,6 +11213,11 @@
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -11216,15 +11227,10 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4,5,6,Q3,Q4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -11243,10 +11249,10 @@
   </sheetPr>
   <dimension ref="A1:N197"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11301,66 +11307,66 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="131" t="str">
+      <c r="B7" s="135" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F28)</f>
         <v>Kỳ tính thuế: Tháng 2 Năm 2012</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -11384,62 +11390,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135" t="s">
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="135" t="s">
+      <c r="I12" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="135" t="s">
+      <c r="K12" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="135" t="s">
+      <c r="L12" s="132" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="135"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="135"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="112" t="s">
         <v>43</v>
       </c>
@@ -11452,12 +11458,16 @@
       <c r="F14" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="117" t="str">
+        <f>IF(OR($N$14=4,$N$14=6,$N$14=9,$N$14=11,$N$14="q3"),"30",IF($N$14=2,"28","31"))</f>
+        <v>28</v>
+      </c>
       <c r="N14" s="116">
         <v>2</v>
       </c>
@@ -11498,16 +11508,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
@@ -11541,16 +11551,16 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="24"/>
@@ -11584,16 +11594,16 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="24"/>
@@ -14613,8 +14623,8 @@
       <c r="K121" s="13">
         <v>640000</v>
       </c>
-      <c r="L121" s="62">
-        <v>7</v>
+      <c r="L121" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="122" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14644,8 +14654,8 @@
       <c r="K122" s="13">
         <v>455000</v>
       </c>
-      <c r="L122" s="62">
-        <v>7</v>
+      <c r="L122" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="123" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14675,8 +14685,8 @@
       <c r="K123" s="13">
         <v>400000</v>
       </c>
-      <c r="L123" s="62">
-        <v>7</v>
+      <c r="L123" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="124" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14706,8 +14716,8 @@
       <c r="K124" s="13">
         <v>497002</v>
       </c>
-      <c r="L124" s="62">
-        <v>7</v>
+      <c r="L124" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="125" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14737,8 +14747,8 @@
       <c r="K125" s="13">
         <v>738837</v>
       </c>
-      <c r="L125" s="62">
-        <v>7</v>
+      <c r="L125" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="126" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14768,8 +14778,8 @@
       <c r="K126" s="13">
         <v>1322224</v>
       </c>
-      <c r="L126" s="62">
-        <v>7</v>
+      <c r="L126" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="127" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14799,8 +14809,8 @@
       <c r="K127" s="13">
         <v>667742</v>
       </c>
-      <c r="L127" s="62">
-        <v>7</v>
+      <c r="L127" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="128" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14830,8 +14840,8 @@
       <c r="K128" s="13">
         <v>627440</v>
       </c>
-      <c r="L128" s="62">
-        <v>7</v>
+      <c r="L128" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="129" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14861,8 +14871,8 @@
       <c r="K129" s="13">
         <v>734980</v>
       </c>
-      <c r="L129" s="62">
-        <v>7</v>
+      <c r="L129" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="130" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14892,8 +14902,8 @@
       <c r="K130" s="13">
         <v>311931</v>
       </c>
-      <c r="L130" s="62">
-        <v>7</v>
+      <c r="L130" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="131" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14923,8 +14933,8 @@
       <c r="K131" s="13">
         <v>3471465</v>
       </c>
-      <c r="L131" s="62">
-        <v>7</v>
+      <c r="L131" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="132" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14954,8 +14964,8 @@
       <c r="K132" s="13">
         <v>734140</v>
       </c>
-      <c r="L132" s="62">
-        <v>7</v>
+      <c r="L132" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="133" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -14985,8 +14995,8 @@
       <c r="K133" s="13">
         <v>527580</v>
       </c>
-      <c r="L133" s="62">
-        <v>7</v>
+      <c r="L133" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="134" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15016,8 +15026,8 @@
       <c r="K134" s="13">
         <v>549360</v>
       </c>
-      <c r="L134" s="62">
-        <v>7</v>
+      <c r="L134" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="135" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15047,8 +15057,8 @@
       <c r="K135" s="13">
         <v>150000</v>
       </c>
-      <c r="L135" s="62">
-        <v>7</v>
+      <c r="L135" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="136" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15078,8 +15088,8 @@
       <c r="K136" s="13">
         <v>553366</v>
       </c>
-      <c r="L136" s="62">
-        <v>7</v>
+      <c r="L136" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="137" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15109,8 +15119,8 @@
       <c r="K137" s="13">
         <v>712000</v>
       </c>
-      <c r="L137" s="62">
-        <v>7</v>
+      <c r="L137" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="138" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15140,8 +15150,8 @@
       <c r="K138" s="13">
         <v>111028</v>
       </c>
-      <c r="L138" s="62">
-        <v>8</v>
+      <c r="L138" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="139" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15171,8 +15181,8 @@
       <c r="K139" s="13">
         <v>1750000</v>
       </c>
-      <c r="L139" s="62">
-        <v>8</v>
+      <c r="L139" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="140" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15202,8 +15212,8 @@
       <c r="K140" s="13">
         <v>910000</v>
       </c>
-      <c r="L140" s="62">
-        <v>8</v>
+      <c r="L140" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="141" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15233,8 +15243,8 @@
       <c r="K141" s="13">
         <v>1932730</v>
       </c>
-      <c r="L141" s="62">
-        <v>8</v>
+      <c r="L141" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="142" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15264,8 +15274,8 @@
       <c r="K142" s="13">
         <v>707250</v>
       </c>
-      <c r="L142" s="62">
-        <v>8</v>
+      <c r="L142" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="143" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15295,8 +15305,8 @@
       <c r="K143" s="13">
         <v>1330346</v>
       </c>
-      <c r="L143" s="62">
-        <v>8</v>
+      <c r="L143" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="144" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15326,8 +15336,8 @@
       <c r="K144" s="13">
         <v>533600</v>
       </c>
-      <c r="L144" s="62">
-        <v>8</v>
+      <c r="L144" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="145" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15357,8 +15367,8 @@
       <c r="K145" s="13">
         <v>1116160</v>
       </c>
-      <c r="L145" s="62">
-        <v>8</v>
+      <c r="L145" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15388,8 +15398,8 @@
       <c r="K146" s="13">
         <v>705585</v>
       </c>
-      <c r="L146" s="62">
-        <v>8</v>
+      <c r="L146" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="147" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15419,8 +15429,8 @@
       <c r="K147" s="13">
         <v>5097390</v>
       </c>
-      <c r="L147" s="62">
-        <v>8</v>
+      <c r="L147" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="148" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15450,8 +15460,8 @@
       <c r="K148" s="13">
         <v>4170780</v>
       </c>
-      <c r="L148" s="62">
-        <v>8</v>
+      <c r="L148" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15481,8 +15491,8 @@
       <c r="K149" s="13">
         <v>958995</v>
       </c>
-      <c r="L149" s="62">
-        <v>8</v>
+      <c r="L149" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="150" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15512,8 +15522,8 @@
       <c r="K150" s="13">
         <v>879800</v>
       </c>
-      <c r="L150" s="62">
-        <v>9</v>
+      <c r="L150" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="151" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15543,8 +15553,8 @@
       <c r="K151" s="13">
         <v>816000</v>
       </c>
-      <c r="L151" s="62">
-        <v>9</v>
+      <c r="L151" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="152" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15574,8 +15584,8 @@
       <c r="K152" s="13">
         <v>704340</v>
       </c>
-      <c r="L152" s="62">
-        <v>9</v>
+      <c r="L152" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15605,8 +15615,8 @@
       <c r="K153" s="13">
         <v>1402015</v>
       </c>
-      <c r="L153" s="62">
-        <v>9</v>
+      <c r="L153" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15636,8 +15646,8 @@
       <c r="K154" s="13">
         <v>193520</v>
       </c>
-      <c r="L154" s="62">
-        <v>9</v>
+      <c r="L154" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="155" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15667,8 +15677,8 @@
       <c r="K155" s="13">
         <v>786909</v>
       </c>
-      <c r="L155" s="62">
-        <v>9</v>
+      <c r="L155" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15698,8 +15708,8 @@
       <c r="K156" s="13">
         <v>884000</v>
       </c>
-      <c r="L156" s="62">
-        <v>9</v>
+      <c r="L156" s="62" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="157" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15729,8 +15739,8 @@
       <c r="K157" s="13">
         <v>559816</v>
       </c>
-      <c r="L157" s="62">
-        <v>10</v>
+      <c r="L157" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="158" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15760,8 +15770,8 @@
       <c r="K158" s="13">
         <v>956400</v>
       </c>
-      <c r="L158" s="62">
-        <v>10</v>
+      <c r="L158" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="159" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15791,8 +15801,8 @@
       <c r="K159" s="13">
         <v>1549000</v>
       </c>
-      <c r="L159" s="62">
-        <v>10</v>
+      <c r="L159" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="160" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15822,8 +15832,8 @@
       <c r="K160" s="13">
         <v>1663000</v>
       </c>
-      <c r="L160" s="62">
-        <v>10</v>
+      <c r="L160" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="161" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15853,8 +15863,8 @@
       <c r="K161" s="13">
         <v>396000</v>
       </c>
-      <c r="L161" s="62">
-        <v>10</v>
+      <c r="L161" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="162" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15884,8 +15894,8 @@
       <c r="K162" s="13">
         <v>929900</v>
       </c>
-      <c r="L162" s="62">
-        <v>10</v>
+      <c r="L162" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="163" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15915,8 +15925,8 @@
       <c r="K163" s="13">
         <v>139481</v>
       </c>
-      <c r="L163" s="62">
-        <v>10</v>
+      <c r="L163" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="164" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15946,8 +15956,8 @@
       <c r="K164" s="13">
         <v>824000</v>
       </c>
-      <c r="L164" s="62">
-        <v>10</v>
+      <c r="L164" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="165" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -15977,8 +15987,8 @@
       <c r="K165" s="13">
         <v>694120</v>
       </c>
-      <c r="L165" s="62">
-        <v>10</v>
+      <c r="L165" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="166" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16008,8 +16018,8 @@
       <c r="K166" s="13">
         <v>891480</v>
       </c>
-      <c r="L166" s="62">
-        <v>10</v>
+      <c r="L166" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="167" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16039,8 +16049,8 @@
       <c r="K167" s="13">
         <v>2053780</v>
       </c>
-      <c r="L167" s="62">
-        <v>10</v>
+      <c r="L167" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="168" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16070,8 +16080,8 @@
       <c r="K168" s="13">
         <v>1728616</v>
       </c>
-      <c r="L168" s="62">
-        <v>10</v>
+      <c r="L168" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="169" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16101,8 +16111,8 @@
       <c r="K169" s="13">
         <v>1018400</v>
       </c>
-      <c r="L169" s="62">
-        <v>10</v>
+      <c r="L169" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="170" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16132,8 +16142,8 @@
       <c r="K170" s="13">
         <v>1062000</v>
       </c>
-      <c r="L170" s="62">
-        <v>10</v>
+      <c r="L170" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="171" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16163,8 +16173,8 @@
       <c r="K171" s="13">
         <v>2296880</v>
       </c>
-      <c r="L171" s="62">
-        <v>11</v>
+      <c r="L171" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="172" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16194,8 +16204,8 @@
       <c r="K172" s="13">
         <v>520300</v>
       </c>
-      <c r="L172" s="62">
-        <v>11</v>
+      <c r="L172" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="173" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16225,8 +16235,8 @@
       <c r="K173" s="13">
         <v>1369815</v>
       </c>
-      <c r="L173" s="62">
-        <v>11</v>
+      <c r="L173" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="174" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16256,8 +16266,8 @@
       <c r="K174" s="13">
         <v>1313030</v>
       </c>
-      <c r="L174" s="62">
-        <v>11</v>
+      <c r="L174" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="175" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16287,8 +16297,8 @@
       <c r="K175" s="13">
         <v>917700</v>
       </c>
-      <c r="L175" s="62">
-        <v>12</v>
+      <c r="L175" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="176" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16318,8 +16328,8 @@
       <c r="K176" s="13">
         <v>1336556</v>
       </c>
-      <c r="L176" s="62">
-        <v>12</v>
+      <c r="L176" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="177" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16349,8 +16359,8 @@
       <c r="K177" s="13">
         <v>424000</v>
       </c>
-      <c r="L177" s="62">
-        <v>12</v>
+      <c r="L177" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="178" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16380,8 +16390,8 @@
       <c r="K178" s="13">
         <v>700180</v>
       </c>
-      <c r="L178" s="62">
-        <v>12</v>
+      <c r="L178" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="179" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16411,8 +16421,8 @@
       <c r="K179" s="13">
         <v>544211</v>
       </c>
-      <c r="L179" s="62">
-        <v>12</v>
+      <c r="L179" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="180" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16442,8 +16452,8 @@
       <c r="K180" s="13">
         <v>270000</v>
       </c>
-      <c r="L180" s="62">
-        <v>12</v>
+      <c r="L180" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16473,8 +16483,8 @@
       <c r="K181" s="13">
         <v>1184780</v>
       </c>
-      <c r="L181" s="62">
-        <v>12</v>
+      <c r="L181" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="182" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16504,8 +16514,8 @@
       <c r="K182" s="13">
         <v>1092902</v>
       </c>
-      <c r="L182" s="62">
-        <v>12</v>
+      <c r="L182" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="183" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16535,8 +16545,8 @@
       <c r="K183" s="13">
         <v>1390260</v>
       </c>
-      <c r="L183" s="62">
-        <v>12</v>
+      <c r="L183" s="62" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="184" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -16575,16 +16585,16 @@
     </row>
     <row r="186" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="187" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="132" t="s">
+      <c r="B187" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C187" s="133"/>
-      <c r="D187" s="133"/>
-      <c r="E187" s="133"/>
-      <c r="F187" s="133"/>
-      <c r="G187" s="133"/>
-      <c r="H187" s="133"/>
-      <c r="I187" s="133"/>
+      <c r="C187" s="130"/>
+      <c r="D187" s="130"/>
+      <c r="E187" s="130"/>
+      <c r="F187" s="130"/>
+      <c r="G187" s="130"/>
+      <c r="H187" s="130"/>
+      <c r="I187" s="130"/>
       <c r="J187" s="19"/>
       <c r="K187" s="19"/>
       <c r="L187" s="24"/>
@@ -16667,8 +16677,8 @@
       <c r="G193" s="15"/>
       <c r="H193" s="15"/>
       <c r="I193" s="35" t="str">
-        <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
-        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2012</v>
+        <f>"Bình Chánh,  Ngày   "&amp;M14&amp;IF(N14="Q4","   Tháng   12",IF(N14="Q3", "   Tháng   9   ","   Tháng   "&amp;N14))&amp;"   Năm  "&amp;YEAR(F135)</f>
+        <v>Bình Chánh,  Ngày   28   Tháng   2   Năm  2012</v>
       </c>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.2">
@@ -16721,6 +16731,11 @@
   </sheetData>
   <autoFilter ref="A25:N104"/>
   <mergeCells count="17">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B187:I187"/>
@@ -16733,15 +16748,10 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4,5,6,Q3,Q4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -16780,23 +16790,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="141"/>
       <c r="R2" s="11" t="s">
         <v>148</v>
       </c>
@@ -16805,23 +16815,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="149"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="144"/>
       <c r="R3" s="11" t="s">
         <v>158</v>
       </c>
@@ -16831,22 +16841,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="141"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="145"/>
       <c r="R4" s="11" t="s">
         <v>155</v>
       </c>
@@ -16856,22 +16866,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="141"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="145"/>
       <c r="R5" s="11" t="s">
         <v>157</v>
       </c>
@@ -16882,21 +16892,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="138"/>
       <c r="R6" s="11" t="s">
         <v>171</v>
       </c>
@@ -16907,21 +16917,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="138"/>
       <c r="R7" s="11" t="s">
         <v>150</v>
       </c>
@@ -16932,21 +16942,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
       <c r="R8" s="11" t="s">
         <v>187</v>
       </c>
@@ -16957,21 +16967,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
       <c r="R9" s="11" t="s">
         <v>189</v>
       </c>
@@ -16982,21 +16992,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
       <c r="R10" s="11" t="s">
         <v>164</v>
       </c>
@@ -17006,22 +17016,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="145"/>
       <c r="R11" s="11" t="s">
         <v>152</v>
       </c>
@@ -17031,22 +17041,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="140"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="145"/>
       <c r="R12" s="11" t="s">
         <v>193</v>
       </c>
@@ -17078,23 +17088,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="149"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="144"/>
       <c r="R14" s="11" t="s">
         <v>196</v>
       </c>
@@ -17104,22 +17114,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="140"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="141"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="145"/>
       <c r="R15" s="11" t="s">
         <v>198</v>
       </c>
@@ -17130,21 +17140,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="136"/>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
       <c r="R16" s="11" t="s">
         <v>163</v>
       </c>
@@ -17180,21 +17190,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
       <c r="R18" s="11" t="s">
         <v>162</v>
       </c>
@@ -17205,21 +17215,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
       <c r="R19" s="11" t="s">
         <v>160</v>
       </c>
@@ -17230,21 +17240,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
       <c r="R20" s="11" t="s">
         <v>151</v>
       </c>
@@ -17255,21 +17265,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
       <c r="R21" s="11" t="s">
         <v>147</v>
       </c>
@@ -17280,21 +17290,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
       <c r="R22" s="11" t="s">
         <v>207</v>
       </c>
@@ -17305,21 +17315,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="136" t="s">
+      <c r="D23" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
       <c r="R23" s="11" t="s">
         <v>209</v>
       </c>
@@ -17330,21 +17340,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="136" t="s">
+      <c r="D24" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
       <c r="R24" s="11" t="s">
         <v>177</v>
       </c>
@@ -17355,21 +17365,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
       <c r="R25" s="11" t="s">
         <v>212</v>
       </c>
@@ -17380,21 +17390,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
       <c r="R26" s="11" t="s">
         <v>214</v>
       </c>
@@ -17427,22 +17437,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="141"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="145"/>
       <c r="R28" s="11" t="s">
         <v>166</v>
       </c>
@@ -17453,21 +17463,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="136" t="s">
+      <c r="D29" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="138"/>
       <c r="R29" s="11" t="s">
         <v>219</v>
       </c>
@@ -17478,21 +17488,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="138"/>
       <c r="R30" s="11" t="s">
         <v>221</v>
       </c>
@@ -17503,21 +17513,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="136" t="s">
+      <c r="D31" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="138"/>
       <c r="R31" s="11" t="s">
         <v>223</v>
       </c>
@@ -17528,21 +17538,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="136" t="s">
+      <c r="D32" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="138"/>
       <c r="R32" s="11" t="s">
         <v>225</v>
       </c>
@@ -17553,21 +17563,21 @@
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="142" t="s">
+      <c r="D33" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="143"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="149"/>
       <c r="R33" s="11" t="s">
         <v>154</v>
       </c>
@@ -17578,21 +17588,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="138"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="139"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="146"/>
+      <c r="P34" s="147"/>
       <c r="R34" s="11" t="s">
         <v>228</v>
       </c>
@@ -18313,6 +18323,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -18327,22 +18353,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18377,23 +18387,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
       <c r="R2" s="11" t="s">
         <v>105</v>
       </c>
@@ -18403,23 +18413,23 @@
       <c r="T2" s="57"/>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="160"/>
       <c r="R3" s="11" t="s">
         <v>107</v>
       </c>
@@ -18430,22 +18440,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="157"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="155"/>
       <c r="R4" s="11" t="s">
         <v>109</v>
       </c>
@@ -18456,22 +18466,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="157"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="155"/>
       <c r="R5" s="11" t="s">
         <v>94</v>
       </c>
@@ -18485,21 +18495,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158"/>
-      <c r="P6" s="159"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="157"/>
       <c r="R6" s="11" t="s">
         <v>112</v>
       </c>
@@ -18511,21 +18521,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="159"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="157"/>
       <c r="R7" s="11" t="s">
         <v>114</v>
       </c>
@@ -18537,21 +18547,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="154" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="158"/>
-      <c r="P8" s="159"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="157"/>
       <c r="R8" s="11" t="s">
         <v>116</v>
       </c>
@@ -18563,21 +18573,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="156" t="s">
+      <c r="D9" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="157"/>
       <c r="R9" s="60" t="s">
         <v>95</v>
       </c>
@@ -18589,21 +18599,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="156" t="s">
+      <c r="D10" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="156"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="157"/>
       <c r="R10" s="11" t="s">
         <v>103</v>
       </c>
@@ -18616,22 +18626,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="156"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="157"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="155"/>
       <c r="R11" s="11" t="s">
         <v>99</v>
       </c>
@@ -18642,22 +18652,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="157"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="155"/>
       <c r="R12" s="60" t="s">
         <v>121</v>
       </c>
@@ -18691,23 +18701,23 @@
       <c r="T13" s="57"/>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
       <c r="R14" s="11" t="s">
         <v>124</v>
       </c>
@@ -18718,22 +18728,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="157"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="155"/>
       <c r="R15" s="11" t="s">
         <v>96</v>
       </c>
@@ -18745,21 +18755,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="157"/>
       <c r="R16" s="11" t="s">
         <v>97</v>
       </c>
@@ -18797,21 +18807,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="157"/>
       <c r="R18" s="60" t="s">
         <v>265</v>
       </c>
@@ -18825,21 +18835,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="157"/>
       <c r="R19" s="60" t="s">
         <v>100</v>
       </c>
@@ -18851,21 +18861,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="157"/>
       <c r="R20" s="60" t="s">
         <v>101</v>
       </c>
@@ -18879,21 +18889,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="157"/>
       <c r="R21" s="60" t="s">
         <v>102</v>
       </c>
@@ -18907,21 +18917,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="158" t="s">
+      <c r="D22" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="157"/>
       <c r="R22" s="60" t="s">
         <v>86</v>
       </c>
@@ -18933,21 +18943,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="157"/>
       <c r="R23" s="60" t="s">
         <v>267</v>
       </c>
@@ -18961,21 +18971,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="157"/>
       <c r="R24" s="60" t="s">
         <v>264</v>
       </c>
@@ -18989,21 +18999,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="158" t="s">
+      <c r="D25" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="157"/>
       <c r="R25" s="60" t="s">
         <v>133</v>
       </c>
@@ -19017,21 +19027,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="157"/>
       <c r="R26" s="60" t="s">
         <v>134</v>
       </c>
@@ -19045,21 +19055,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="158" t="s">
+      <c r="D27" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="157"/>
       <c r="R27" s="60" t="s">
         <v>135</v>
       </c>
@@ -19098,22 +19108,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="155"/>
       <c r="R29" s="60" t="s">
         <v>109</v>
       </c>
@@ -19127,21 +19137,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="157"/>
       <c r="R30" s="60" t="s">
         <v>137</v>
       </c>
@@ -19153,21 +19163,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="158" t="s">
+      <c r="D31" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="157"/>
       <c r="R31" s="60" t="s">
         <v>104</v>
       </c>
@@ -19177,21 +19187,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="158" t="s">
+      <c r="D32" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="157"/>
       <c r="R32" s="60" t="s">
         <v>268</v>
       </c>
@@ -19201,21 +19211,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="157"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -19223,21 +19233,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
-      <c r="P34" s="161"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="151"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -19245,21 +19255,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="160" t="s">
+      <c r="D35" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="161"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
+      <c r="N35" s="150"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="151"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -19267,21 +19277,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="162" t="s">
+      <c r="D36" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="163"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="153"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -19358,14 +19368,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -19378,18 +19392,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/SO SACH/0310686815/2013/BANGKE - 13.xlsx
+++ b/SO SACH/0310686815/2013/BANGKE - 13.xlsx
@@ -2363,6 +2363,27 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2374,24 +2395,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2405,29 +2408,23 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2447,6 +2444,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2464,42 +2500,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2542,7 +2542,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2747,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3204,15 +3204,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,70 +3269,70 @@
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
     </row>
     <row r="5" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
     </row>
     <row r="6" spans="1:15" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="122" t="str">
+      <c r="B7" s="129" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F23)</f>
-        <v>Kỳ tính thuế: Tháng 3 Năm 2013</v>
-      </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
+        <v>Kỳ tính thuế: Tháng 6 Năm 2013</v>
+      </c>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
     </row>
     <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
@@ -3357,20 +3357,20 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="126" t="s">
@@ -3439,10 +3439,10 @@
       <c r="M14" s="124"/>
       <c r="N14" s="114" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O14" s="113">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
@@ -3499,7 +3499,7 @@
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="46">
         <f>IF(G17&lt;&gt;"",ROW()-16,"")</f>
         <v>1</v>
@@ -3542,7 +3542,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="55"/>
     </row>
-    <row r="18" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46">
         <f t="shared" ref="B18:B77" si="2">IF(G18&lt;&gt;"",ROW()-16,"")</f>
         <v>2</v>
@@ -3585,7 +3585,7 @@
       <c r="P18" s="53"/>
       <c r="Q18" s="55"/>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="46">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -3627,7 +3627,7 @@
       <c r="O19" s="54"/>
       <c r="P19" s="53"/>
     </row>
-    <row r="20" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="46">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3669,7 +3669,7 @@
       <c r="O20" s="54"/>
       <c r="P20" s="53"/>
     </row>
-    <row r="21" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3711,7 +3711,7 @@
       <c r="O21" s="54"/>
       <c r="P21" s="53"/>
     </row>
-    <row r="22" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="46">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3753,7 +3753,7 @@
       <c r="O22" s="54"/>
       <c r="P22" s="53"/>
     </row>
-    <row r="23" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="46">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3795,7 +3795,7 @@
       <c r="O23" s="54"/>
       <c r="P23" s="53"/>
     </row>
-    <row r="24" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="46">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3837,7 +3837,7 @@
       <c r="O24" s="54"/>
       <c r="P24" s="53"/>
     </row>
-    <row r="25" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="46">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3879,7 +3879,7 @@
       <c r="O25" s="54"/>
       <c r="P25" s="53"/>
     </row>
-    <row r="26" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3921,7 +3921,7 @@
       <c r="O26" s="54"/>
       <c r="P26" s="53"/>
     </row>
-    <row r="27" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="46">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3963,7 +3963,7 @@
       <c r="O27" s="54"/>
       <c r="P27" s="53"/>
     </row>
-    <row r="28" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="46">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4005,7 +4005,7 @@
       <c r="O28" s="54"/>
       <c r="P28" s="53"/>
     </row>
-    <row r="29" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="46">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4047,7 +4047,7 @@
       <c r="O29" s="54"/>
       <c r="P29" s="53"/>
     </row>
-    <row r="30" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="46">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4089,7 +4089,7 @@
       <c r="O30" s="54"/>
       <c r="P30" s="53"/>
     </row>
-    <row r="31" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="46">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4131,7 +4131,7 @@
       <c r="O31" s="54"/>
       <c r="P31" s="53"/>
     </row>
-    <row r="32" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="46">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4173,7 +4173,7 @@
       <c r="O32" s="54"/>
       <c r="P32" s="53"/>
     </row>
-    <row r="33" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="46">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4215,7 +4215,7 @@
       <c r="O33" s="54"/>
       <c r="P33" s="53"/>
     </row>
-    <row r="34" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="46">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4257,7 +4257,7 @@
       <c r="O34" s="54"/>
       <c r="P34" s="53"/>
     </row>
-    <row r="35" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="46">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4299,7 +4299,7 @@
       <c r="O35" s="54"/>
       <c r="P35" s="53"/>
     </row>
-    <row r="36" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="46">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4341,7 +4341,7 @@
       <c r="O36" s="54"/>
       <c r="P36" s="53"/>
     </row>
-    <row r="37" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="46">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4383,7 +4383,7 @@
       <c r="O37" s="54"/>
       <c r="P37" s="53"/>
     </row>
-    <row r="38" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="46">
         <f>IF(G38&lt;&gt;"",ROW()-16,"")</f>
         <v>22</v>
@@ -4425,7 +4425,7 @@
       <c r="O38" s="54"/>
       <c r="P38" s="53"/>
     </row>
-    <row r="39" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="46">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4467,7 +4467,7 @@
       <c r="O39" s="54"/>
       <c r="P39" s="53"/>
     </row>
-    <row r="40" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="46">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4509,7 +4509,7 @@
       <c r="O40" s="54"/>
       <c r="P40" s="53"/>
     </row>
-    <row r="41" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="46">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4551,7 +4551,7 @@
       <c r="O41" s="54"/>
       <c r="P41" s="53"/>
     </row>
-    <row r="42" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="46">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4593,7 +4593,7 @@
       <c r="O42" s="54"/>
       <c r="P42" s="53"/>
     </row>
-    <row r="43" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="46">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4635,7 +4635,7 @@
       <c r="O43" s="54"/>
       <c r="P43" s="53"/>
     </row>
-    <row r="44" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="46">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4677,7 +4677,7 @@
       <c r="O44" s="54"/>
       <c r="P44" s="53"/>
     </row>
-    <row r="45" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="46">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4719,7 +4719,7 @@
       <c r="O45" s="54"/>
       <c r="P45" s="53"/>
     </row>
-    <row r="46" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="46">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -4761,7 +4761,7 @@
       <c r="O46" s="54"/>
       <c r="P46" s="53"/>
     </row>
-    <row r="47" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="46">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4803,7 +4803,7 @@
       <c r="O47" s="54"/>
       <c r="P47" s="53"/>
     </row>
-    <row r="48" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="46">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -4845,7 +4845,7 @@
       <c r="O48" s="54"/>
       <c r="P48" s="53"/>
     </row>
-    <row r="49" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="46">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -4887,7 +4887,7 @@
       <c r="O49" s="54"/>
       <c r="P49" s="53"/>
     </row>
-    <row r="50" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="46">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -4929,7 +4929,7 @@
       <c r="O50" s="54"/>
       <c r="P50" s="53"/>
     </row>
-    <row r="51" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="46">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -4961,7 +4961,7 @@
       <c r="K51" s="52">
         <v>0.1</v>
       </c>
-      <c r="L51" s="163">
+      <c r="L51" s="121">
         <v>261647</v>
       </c>
       <c r="M51" s="61">
@@ -4971,7 +4971,7 @@
       <c r="O51" s="54"/>
       <c r="P51" s="53"/>
     </row>
-    <row r="52" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="46">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -5003,7 +5003,7 @@
       <c r="K52" s="52">
         <v>0.1</v>
       </c>
-      <c r="L52" s="164">
+      <c r="L52" s="122">
         <v>125000</v>
       </c>
       <c r="M52" s="61">
@@ -5013,7 +5013,7 @@
       <c r="O52" s="54"/>
       <c r="P52" s="53"/>
     </row>
-    <row r="53" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="46">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -5045,7 +5045,7 @@
       <c r="K53" s="52">
         <v>0.1</v>
       </c>
-      <c r="L53" s="165">
+      <c r="L53" s="123">
         <v>211200</v>
       </c>
       <c r="M53" s="61" t="s">
@@ -5055,7 +5055,7 @@
       <c r="O53" s="54"/>
       <c r="P53" s="53"/>
     </row>
-    <row r="54" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="46">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -5087,7 +5087,7 @@
       <c r="K54" s="52">
         <v>0.1</v>
       </c>
-      <c r="L54" s="164">
+      <c r="L54" s="122">
         <v>175000</v>
       </c>
       <c r="M54" s="61" t="s">
@@ -5097,7 +5097,7 @@
       <c r="O54" s="54"/>
       <c r="P54" s="53"/>
     </row>
-    <row r="55" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="46">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -5139,7 +5139,7 @@
       <c r="O55" s="54"/>
       <c r="P55" s="53"/>
     </row>
-    <row r="56" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="46">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -5181,7 +5181,7 @@
       <c r="O56" s="54"/>
       <c r="P56" s="53"/>
     </row>
-    <row r="57" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="46">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -5223,7 +5223,7 @@
       <c r="O57" s="54"/>
       <c r="P57" s="53"/>
     </row>
-    <row r="58" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="46">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5265,7 +5265,7 @@
       <c r="O58" s="54"/>
       <c r="P58" s="53"/>
     </row>
-    <row r="59" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="46">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -5307,7 +5307,7 @@
       <c r="O59" s="54"/>
       <c r="P59" s="53"/>
     </row>
-    <row r="60" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="46">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -5349,7 +5349,7 @@
       <c r="O60" s="54"/>
       <c r="P60" s="53"/>
     </row>
-    <row r="61" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="46">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5391,7 +5391,7 @@
       <c r="O61" s="54"/>
       <c r="P61" s="53"/>
     </row>
-    <row r="62" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="46">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5433,7 +5433,7 @@
       <c r="O62" s="54"/>
       <c r="P62" s="53"/>
     </row>
-    <row r="63" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="46">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5475,7 +5475,7 @@
       <c r="O63" s="54"/>
       <c r="P63" s="53"/>
     </row>
-    <row r="64" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="46">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -5517,7 +5517,7 @@
       <c r="O64" s="54"/>
       <c r="P64" s="53"/>
     </row>
-    <row r="65" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="46">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5559,7 +5559,7 @@
       <c r="O65" s="54"/>
       <c r="P65" s="53"/>
     </row>
-    <row r="66" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="46">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5601,7 +5601,7 @@
       <c r="O66" s="54"/>
       <c r="P66" s="53"/>
     </row>
-    <row r="67" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="46">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5643,7 +5643,7 @@
       <c r="O67" s="54"/>
       <c r="P67" s="53"/>
     </row>
-    <row r="68" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="46">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -5685,7 +5685,7 @@
       <c r="O68" s="54"/>
       <c r="P68" s="53"/>
     </row>
-    <row r="69" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="46">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -5727,7 +5727,7 @@
       <c r="O69" s="54"/>
       <c r="P69" s="53"/>
     </row>
-    <row r="70" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="46">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -5769,7 +5769,7 @@
       <c r="O70" s="54"/>
       <c r="P70" s="53"/>
     </row>
-    <row r="71" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="46">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -5811,7 +5811,7 @@
       <c r="O71" s="54"/>
       <c r="P71" s="53"/>
     </row>
-    <row r="72" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="46">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -5853,7 +5853,7 @@
       <c r="O72" s="54"/>
       <c r="P72" s="53"/>
     </row>
-    <row r="73" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="46">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -5895,7 +5895,7 @@
       <c r="O73" s="54"/>
       <c r="P73" s="53"/>
     </row>
-    <row r="74" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="46">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -5937,7 +5937,7 @@
       <c r="O74" s="54"/>
       <c r="P74" s="53"/>
     </row>
-    <row r="75" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="46">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -5979,7 +5979,7 @@
       <c r="O75" s="54"/>
       <c r="P75" s="53"/>
     </row>
-    <row r="76" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="46">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -6021,7 +6021,7 @@
       <c r="O76" s="54"/>
       <c r="P76" s="53"/>
     </row>
-    <row r="77" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="46">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -6147,7 +6147,7 @@
       <c r="O79" s="54"/>
       <c r="P79" s="53"/>
     </row>
-    <row r="80" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="46">
         <f t="shared" si="5"/>
         <v>64</v>
@@ -6189,7 +6189,7 @@
       <c r="O80" s="54"/>
       <c r="P80" s="53"/>
     </row>
-    <row r="81" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="46">
         <f t="shared" si="5"/>
         <v>65</v>
@@ -6231,7 +6231,7 @@
       <c r="O81" s="54"/>
       <c r="P81" s="53"/>
     </row>
-    <row r="82" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="46">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -6273,7 +6273,7 @@
       <c r="O82" s="54"/>
       <c r="P82" s="53"/>
     </row>
-    <row r="83" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="46">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -6315,7 +6315,7 @@
       <c r="O83" s="54"/>
       <c r="P83" s="53"/>
     </row>
-    <row r="84" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="46">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -6357,7 +6357,7 @@
       <c r="O84" s="54"/>
       <c r="P84" s="53"/>
     </row>
-    <row r="85" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="46">
         <f t="shared" si="5"/>
         <v>69</v>
@@ -6399,7 +6399,7 @@
       <c r="O85" s="54"/>
       <c r="P85" s="53"/>
     </row>
-    <row r="86" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="46">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -6441,7 +6441,7 @@
       <c r="O86" s="54"/>
       <c r="P86" s="53"/>
     </row>
-    <row r="87" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="46">
         <f t="shared" si="5"/>
         <v>71</v>
@@ -6483,7 +6483,7 @@
       <c r="O87" s="54"/>
       <c r="P87" s="53"/>
     </row>
-    <row r="88" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="46">
         <f t="shared" si="5"/>
         <v>72</v>
@@ -6525,7 +6525,7 @@
       <c r="O88" s="54"/>
       <c r="P88" s="53"/>
     </row>
-    <row r="89" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="46">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -6567,7 +6567,7 @@
       <c r="O89" s="54"/>
       <c r="P89" s="53"/>
     </row>
-    <row r="90" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="46">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -6609,7 +6609,7 @@
       <c r="O90" s="54"/>
       <c r="P90" s="53"/>
     </row>
-    <row r="91" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="46">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -6651,7 +6651,7 @@
       <c r="O91" s="54"/>
       <c r="P91" s="53"/>
     </row>
-    <row r="92" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="46">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -6693,7 +6693,7 @@
       <c r="O92" s="54"/>
       <c r="P92" s="53"/>
     </row>
-    <row r="93" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="46">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -6735,7 +6735,7 @@
       <c r="O93" s="54"/>
       <c r="P93" s="53"/>
     </row>
-    <row r="94" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="46">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -6777,7 +6777,7 @@
       <c r="O94" s="54"/>
       <c r="P94" s="53"/>
     </row>
-    <row r="95" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="46">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -6819,7 +6819,7 @@
       <c r="O95" s="54"/>
       <c r="P95" s="53"/>
     </row>
-    <row r="96" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="46">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -6861,7 +6861,7 @@
       <c r="O96" s="54"/>
       <c r="P96" s="53"/>
     </row>
-    <row r="97" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="46">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -6903,7 +6903,7 @@
       <c r="O97" s="54"/>
       <c r="P97" s="53"/>
     </row>
-    <row r="98" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="46">
         <f t="shared" si="5"/>
         <v>82</v>
@@ -6945,7 +6945,7 @@
       <c r="O98" s="54"/>
       <c r="P98" s="53"/>
     </row>
-    <row r="99" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="46">
         <f t="shared" si="5"/>
         <v>83</v>
@@ -6987,7 +6987,7 @@
       <c r="O99" s="54"/>
       <c r="P99" s="53"/>
     </row>
-    <row r="100" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="46">
         <f t="shared" si="5"/>
         <v>84</v>
@@ -7029,7 +7029,7 @@
       <c r="O100" s="54"/>
       <c r="P100" s="53"/>
     </row>
-    <row r="101" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="46">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -7103,12 +7103,12 @@
       <c r="I103" s="67"/>
       <c r="J103" s="69">
         <f>SUBTOTAL(9,J17:J102)</f>
-        <v>747123961</v>
+        <v>30148135</v>
       </c>
       <c r="K103" s="69"/>
       <c r="L103" s="69">
         <f>SUBTOTAL(9,L17:L102)</f>
-        <v>74712388</v>
+        <v>3014813</v>
       </c>
       <c r="M103" s="67"/>
       <c r="N103" s="54"/>
@@ -7318,7 +7318,7 @@
       <c r="G116" s="37"/>
       <c r="H116" s="85">
         <f>J103</f>
-        <v>747123961</v>
+        <v>30148135</v>
       </c>
       <c r="I116" s="37"/>
       <c r="K116" s="39"/>
@@ -7334,7 +7334,7 @@
       <c r="G117" s="37"/>
       <c r="H117" s="85">
         <f>L103</f>
-        <v>74712388</v>
+        <v>3014813</v>
       </c>
       <c r="I117" s="37"/>
       <c r="K117" s="39"/>
@@ -7352,7 +7352,7 @@
       <c r="I118" s="37"/>
       <c r="J118" s="110" t="str">
         <f>"Bình Chánh,  Ngày   "&amp;N14&amp;IF(O14="Q4","   Tháng   12",IF(O14="Q3", "   Tháng   9   ","   Tháng   "&amp;O14))&amp;"   Năm  "&amp;YEAR(F101)</f>
-        <v>Bình Chánh,  Ngày   31   Tháng   3   Năm  2013</v>
+        <v>Bình Chánh,  Ngày   30   Tháng   6   Năm  2013</v>
       </c>
       <c r="K118" s="110"/>
       <c r="N118" s="54"/>
@@ -7410,11 +7410,22 @@
       <c r="M122" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A16:Q102"/>
+  <autoFilter ref="A16:Q102">
+    <filterColumn colId="12">
+      <filters blank="1">
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A240:Q249">
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -7426,11 +7437,6 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -7448,13 +7454,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:O233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
@@ -7511,66 +7517,66 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="129" t="str">
+      <c r="B7" s="137" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 3 Năm 2013</v>
-      </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
+        <v>Kỳ tính thuế: Tháng 2 Năm 2013</v>
+      </c>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -7594,86 +7600,86 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="133" t="s">
+      <c r="E12" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="133" t="s">
+      <c r="F12" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="J12" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="133" t="s">
+      <c r="K12" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="133" t="s">
+      <c r="L12" s="134" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
       <c r="M14" s="114" t="str">
         <f>IF(OR($N$14=4,$N$14=6,$N$14=9,$N$14=11),"30",IF($N$14=2,"28","31"))</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N14" s="113">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -7712,16 +7718,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
@@ -7755,16 +7761,16 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="24"/>
@@ -7798,16 +7804,16 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="24"/>
@@ -7855,7 +7861,7 @@
       <c r="K25" s="25"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9">
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
@@ -7891,9 +7897,9 @@
       <c r="L26" s="61">
         <v>1</v>
       </c>
-      <c r="O26" s="162"/>
-    </row>
-    <row r="27" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="120"/>
+    </row>
+    <row r="27" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <f t="shared" ref="B27:B90" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
@@ -7929,9 +7935,9 @@
       <c r="L27" s="61">
         <v>1</v>
       </c>
-      <c r="O27" s="162"/>
-    </row>
-    <row r="28" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="120"/>
+    </row>
+    <row r="28" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7967,9 +7973,9 @@
       <c r="L28" s="61">
         <v>1</v>
       </c>
-      <c r="O28" s="162"/>
-    </row>
-    <row r="29" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="120"/>
+    </row>
+    <row r="29" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -8005,9 +8011,9 @@
       <c r="L29" s="61">
         <v>1</v>
       </c>
-      <c r="O29" s="162"/>
-    </row>
-    <row r="30" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="120"/>
+    </row>
+    <row r="30" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -8043,9 +8049,9 @@
       <c r="L30" s="61">
         <v>1</v>
       </c>
-      <c r="O30" s="162"/>
-    </row>
-    <row r="31" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="120"/>
+    </row>
+    <row r="31" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -8081,9 +8087,9 @@
       <c r="L31" s="61">
         <v>1</v>
       </c>
-      <c r="O31" s="162"/>
-    </row>
-    <row r="32" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="120"/>
+    </row>
+    <row r="32" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -8119,9 +8125,9 @@
       <c r="L32" s="61">
         <v>1</v>
       </c>
-      <c r="O32" s="162"/>
-    </row>
-    <row r="33" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="120"/>
+    </row>
+    <row r="33" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -8157,9 +8163,9 @@
       <c r="L33" s="61">
         <v>1</v>
       </c>
-      <c r="O33" s="162"/>
-    </row>
-    <row r="34" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="120"/>
+    </row>
+    <row r="34" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -8195,9 +8201,9 @@
       <c r="L34" s="61">
         <v>1</v>
       </c>
-      <c r="O34" s="162"/>
-    </row>
-    <row r="35" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="120"/>
+    </row>
+    <row r="35" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -8233,9 +8239,9 @@
       <c r="L35" s="61">
         <v>1</v>
       </c>
-      <c r="O35" s="162"/>
-    </row>
-    <row r="36" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="120"/>
+    </row>
+    <row r="36" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -8271,9 +8277,9 @@
       <c r="L36" s="61">
         <v>1</v>
       </c>
-      <c r="O36" s="162"/>
-    </row>
-    <row r="37" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="120"/>
+    </row>
+    <row r="37" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -8309,9 +8315,9 @@
       <c r="L37" s="61">
         <v>1</v>
       </c>
-      <c r="O37" s="162"/>
-    </row>
-    <row r="38" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="120"/>
+    </row>
+    <row r="38" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -8347,9 +8353,9 @@
       <c r="L38" s="61">
         <v>1</v>
       </c>
-      <c r="O38" s="162"/>
-    </row>
-    <row r="39" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="120"/>
+    </row>
+    <row r="39" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -8385,9 +8391,9 @@
       <c r="L39" s="61">
         <v>1</v>
       </c>
-      <c r="O39" s="162"/>
-    </row>
-    <row r="40" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="120"/>
+    </row>
+    <row r="40" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8423,7 +8429,7 @@
       <c r="L40" s="61">
         <v>1</v>
       </c>
-      <c r="O40" s="162"/>
+      <c r="O40" s="120"/>
     </row>
     <row r="41" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
@@ -8461,9 +8467,9 @@
       <c r="L41" s="61">
         <v>2</v>
       </c>
-      <c r="O41" s="162"/>
-    </row>
-    <row r="42" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="120"/>
+    </row>
+    <row r="42" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -8499,9 +8505,9 @@
       <c r="L42" s="61">
         <v>3</v>
       </c>
-      <c r="O42" s="162"/>
-    </row>
-    <row r="43" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="120"/>
+    </row>
+    <row r="43" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -8537,9 +8543,9 @@
       <c r="L43" s="61">
         <v>3</v>
       </c>
-      <c r="O43" s="162"/>
-    </row>
-    <row r="44" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="120"/>
+    </row>
+    <row r="44" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -8575,9 +8581,9 @@
       <c r="L44" s="61">
         <v>3</v>
       </c>
-      <c r="O44" s="162"/>
-    </row>
-    <row r="45" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="120"/>
+    </row>
+    <row r="45" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8613,9 +8619,9 @@
       <c r="L45" s="61">
         <v>3</v>
       </c>
-      <c r="O45" s="162"/>
-    </row>
-    <row r="46" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="120"/>
+    </row>
+    <row r="46" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -8651,9 +8657,9 @@
       <c r="L46" s="61">
         <v>3</v>
       </c>
-      <c r="O46" s="162"/>
-    </row>
-    <row r="47" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="120"/>
+    </row>
+    <row r="47" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -8689,9 +8695,9 @@
       <c r="L47" s="61">
         <v>3</v>
       </c>
-      <c r="O47" s="162"/>
-    </row>
-    <row r="48" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="120"/>
+    </row>
+    <row r="48" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -8727,9 +8733,9 @@
       <c r="L48" s="61">
         <v>3</v>
       </c>
-      <c r="O48" s="162"/>
-    </row>
-    <row r="49" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="120"/>
+    </row>
+    <row r="49" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -8765,9 +8771,9 @@
       <c r="L49" s="61">
         <v>3</v>
       </c>
-      <c r="O49" s="162"/>
-    </row>
-    <row r="50" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="120"/>
+    </row>
+    <row r="50" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -8803,9 +8809,9 @@
       <c r="L50" s="61">
         <v>3</v>
       </c>
-      <c r="O50" s="162"/>
-    </row>
-    <row r="51" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="120"/>
+    </row>
+    <row r="51" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8841,9 +8847,9 @@
       <c r="L51" s="61">
         <v>3</v>
       </c>
-      <c r="O51" s="162"/>
-    </row>
-    <row r="52" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="120"/>
+    </row>
+    <row r="52" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8879,9 +8885,9 @@
       <c r="L52" s="61">
         <v>3</v>
       </c>
-      <c r="O52" s="162"/>
-    </row>
-    <row r="53" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="120"/>
+    </row>
+    <row r="53" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8917,9 +8923,9 @@
       <c r="L53" s="61">
         <v>3</v>
       </c>
-      <c r="O53" s="162"/>
-    </row>
-    <row r="54" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="120"/>
+    </row>
+    <row r="54" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8955,9 +8961,9 @@
       <c r="L54" s="61">
         <v>4</v>
       </c>
-      <c r="O54" s="162"/>
-    </row>
-    <row r="55" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="120"/>
+    </row>
+    <row r="55" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8993,9 +8999,9 @@
       <c r="L55" s="61">
         <v>4</v>
       </c>
-      <c r="O55" s="162"/>
-    </row>
-    <row r="56" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="120"/>
+    </row>
+    <row r="56" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -9031,9 +9037,9 @@
       <c r="L56" s="61">
         <v>4</v>
       </c>
-      <c r="O56" s="162"/>
-    </row>
-    <row r="57" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="120"/>
+    </row>
+    <row r="57" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -9069,9 +9075,9 @@
       <c r="L57" s="61">
         <v>4</v>
       </c>
-      <c r="O57" s="162"/>
-    </row>
-    <row r="58" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="120"/>
+    </row>
+    <row r="58" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -9107,9 +9113,9 @@
       <c r="L58" s="61">
         <v>4</v>
       </c>
-      <c r="O58" s="162"/>
-    </row>
-    <row r="59" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="120"/>
+    </row>
+    <row r="59" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -9145,9 +9151,9 @@
       <c r="L59" s="61">
         <v>4</v>
       </c>
-      <c r="O59" s="162"/>
-    </row>
-    <row r="60" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="120"/>
+    </row>
+    <row r="60" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -9183,9 +9189,9 @@
       <c r="L60" s="61">
         <v>4</v>
       </c>
-      <c r="O60" s="162"/>
-    </row>
-    <row r="61" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="120"/>
+    </row>
+    <row r="61" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -9221,9 +9227,9 @@
       <c r="L61" s="61">
         <v>4</v>
       </c>
-      <c r="O61" s="162"/>
-    </row>
-    <row r="62" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="120"/>
+    </row>
+    <row r="62" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -9259,9 +9265,9 @@
       <c r="L62" s="61">
         <v>4</v>
       </c>
-      <c r="O62" s="162"/>
-    </row>
-    <row r="63" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="120"/>
+    </row>
+    <row r="63" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -9297,9 +9303,9 @@
       <c r="L63" s="61">
         <v>4</v>
       </c>
-      <c r="O63" s="162"/>
-    </row>
-    <row r="64" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="120"/>
+    </row>
+    <row r="64" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -9335,9 +9341,9 @@
       <c r="L64" s="61">
         <v>4</v>
       </c>
-      <c r="O64" s="162"/>
-    </row>
-    <row r="65" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="120"/>
+    </row>
+    <row r="65" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9373,9 +9379,9 @@
       <c r="L65" s="61">
         <v>4</v>
       </c>
-      <c r="O65" s="162"/>
-    </row>
-    <row r="66" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="120"/>
+    </row>
+    <row r="66" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -9411,9 +9417,9 @@
       <c r="L66" s="61">
         <v>4</v>
       </c>
-      <c r="O66" s="162"/>
-    </row>
-    <row r="67" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="120"/>
+    </row>
+    <row r="67" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -9449,9 +9455,9 @@
       <c r="L67" s="61">
         <v>4</v>
       </c>
-      <c r="O67" s="162"/>
-    </row>
-    <row r="68" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="120"/>
+    </row>
+    <row r="68" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -9487,9 +9493,9 @@
       <c r="L68" s="61">
         <v>4</v>
       </c>
-      <c r="O68" s="162"/>
-    </row>
-    <row r="69" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="120"/>
+    </row>
+    <row r="69" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -9525,9 +9531,9 @@
       <c r="L69" s="61">
         <v>4</v>
       </c>
-      <c r="O69" s="162"/>
-    </row>
-    <row r="70" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="120"/>
+    </row>
+    <row r="70" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -9563,9 +9569,9 @@
       <c r="L70" s="61">
         <v>4</v>
       </c>
-      <c r="O70" s="162"/>
-    </row>
-    <row r="71" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="120"/>
+    </row>
+    <row r="71" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -9601,9 +9607,9 @@
       <c r="L71" s="61">
         <v>5</v>
       </c>
-      <c r="O71" s="162"/>
-    </row>
-    <row r="72" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="120"/>
+    </row>
+    <row r="72" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -9639,9 +9645,9 @@
       <c r="L72" s="61">
         <v>5</v>
       </c>
-      <c r="O72" s="162"/>
-    </row>
-    <row r="73" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="120"/>
+    </row>
+    <row r="73" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -9677,9 +9683,9 @@
       <c r="L73" s="61">
         <v>5</v>
       </c>
-      <c r="O73" s="162"/>
-    </row>
-    <row r="74" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="120"/>
+    </row>
+    <row r="74" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -9715,9 +9721,9 @@
       <c r="L74" s="61">
         <v>5</v>
       </c>
-      <c r="O74" s="162"/>
-    </row>
-    <row r="75" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="120"/>
+    </row>
+    <row r="75" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -9753,9 +9759,9 @@
       <c r="L75" s="61">
         <v>5</v>
       </c>
-      <c r="O75" s="162"/>
-    </row>
-    <row r="76" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="120"/>
+    </row>
+    <row r="76" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -9791,9 +9797,9 @@
       <c r="L76" s="61">
         <v>5</v>
       </c>
-      <c r="O76" s="162"/>
-    </row>
-    <row r="77" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O76" s="120"/>
+    </row>
+    <row r="77" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -9829,9 +9835,9 @@
       <c r="L77" s="61">
         <v>5</v>
       </c>
-      <c r="O77" s="162"/>
-    </row>
-    <row r="78" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O77" s="120"/>
+    </row>
+    <row r="78" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -9867,9 +9873,9 @@
       <c r="L78" s="61">
         <v>5</v>
       </c>
-      <c r="O78" s="162"/>
-    </row>
-    <row r="79" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O78" s="120"/>
+    </row>
+    <row r="79" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -9905,9 +9911,9 @@
       <c r="L79" s="61">
         <v>5</v>
       </c>
-      <c r="O79" s="162"/>
-    </row>
-    <row r="80" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O79" s="120"/>
+    </row>
+    <row r="80" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -9943,9 +9949,9 @@
       <c r="L80" s="61">
         <v>5</v>
       </c>
-      <c r="O80" s="162"/>
-    </row>
-    <row r="81" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O80" s="120"/>
+    </row>
+    <row r="81" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -9981,9 +9987,9 @@
       <c r="L81" s="61">
         <v>6</v>
       </c>
-      <c r="O81" s="162"/>
-    </row>
-    <row r="82" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O81" s="120"/>
+    </row>
+    <row r="82" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -10019,9 +10025,9 @@
       <c r="L82" s="61">
         <v>6</v>
       </c>
-      <c r="O82" s="162"/>
-    </row>
-    <row r="83" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O82" s="120"/>
+    </row>
+    <row r="83" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -10057,9 +10063,9 @@
       <c r="L83" s="61">
         <v>6</v>
       </c>
-      <c r="O83" s="162"/>
-    </row>
-    <row r="84" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O83" s="120"/>
+    </row>
+    <row r="84" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -10095,9 +10101,9 @@
       <c r="L84" s="61">
         <v>6</v>
       </c>
-      <c r="O84" s="162"/>
-    </row>
-    <row r="85" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O84" s="120"/>
+    </row>
+    <row r="85" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -10133,9 +10139,9 @@
       <c r="L85" s="61">
         <v>6</v>
       </c>
-      <c r="O85" s="162"/>
-    </row>
-    <row r="86" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O85" s="120"/>
+    </row>
+    <row r="86" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -10171,9 +10177,9 @@
       <c r="L86" s="61">
         <v>6</v>
       </c>
-      <c r="O86" s="162"/>
-    </row>
-    <row r="87" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O86" s="120"/>
+    </row>
+    <row r="87" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -10209,9 +10215,9 @@
       <c r="L87" s="61">
         <v>6</v>
       </c>
-      <c r="O87" s="162"/>
-    </row>
-    <row r="88" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O87" s="120"/>
+    </row>
+    <row r="88" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -10247,9 +10253,9 @@
       <c r="L88" s="61">
         <v>6</v>
       </c>
-      <c r="O88" s="162"/>
-    </row>
-    <row r="89" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O88" s="120"/>
+    </row>
+    <row r="89" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -10285,9 +10291,9 @@
       <c r="L89" s="61">
         <v>6</v>
       </c>
-      <c r="O89" s="162"/>
-    </row>
-    <row r="90" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O89" s="120"/>
+    </row>
+    <row r="90" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -10323,9 +10329,9 @@
       <c r="L90" s="61">
         <v>6</v>
       </c>
-      <c r="O90" s="162"/>
-    </row>
-    <row r="91" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O90" s="120"/>
+    </row>
+    <row r="91" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9">
         <f t="shared" ref="B91:B154" si="3">IF(G91&lt;&gt;"",ROW()-25,"")</f>
         <v>66</v>
@@ -10361,9 +10367,9 @@
       <c r="L91" s="61">
         <v>6</v>
       </c>
-      <c r="O91" s="162"/>
-    </row>
-    <row r="92" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O91" s="120"/>
+    </row>
+    <row r="92" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="9">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -10399,9 +10405,9 @@
       <c r="L92" s="61">
         <v>6</v>
       </c>
-      <c r="O92" s="162"/>
-    </row>
-    <row r="93" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O92" s="120"/>
+    </row>
+    <row r="93" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -10437,9 +10443,9 @@
       <c r="L93" s="61">
         <v>6</v>
       </c>
-      <c r="O93" s="162"/>
-    </row>
-    <row r="94" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O93" s="120"/>
+    </row>
+    <row r="94" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -10475,9 +10481,9 @@
       <c r="L94" s="61">
         <v>6</v>
       </c>
-      <c r="O94" s="162"/>
-    </row>
-    <row r="95" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O94" s="120"/>
+    </row>
+    <row r="95" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -10513,9 +10519,9 @@
       <c r="L95" s="61">
         <v>6</v>
       </c>
-      <c r="O95" s="162"/>
-    </row>
-    <row r="96" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O95" s="120"/>
+    </row>
+    <row r="96" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="9">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -10551,9 +10557,9 @@
       <c r="L96" s="61">
         <v>6</v>
       </c>
-      <c r="O96" s="162"/>
-    </row>
-    <row r="97" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O96" s="120"/>
+    </row>
+    <row r="97" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -10589,9 +10595,9 @@
       <c r="L97" s="61">
         <v>6</v>
       </c>
-      <c r="O97" s="162"/>
-    </row>
-    <row r="98" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O97" s="120"/>
+    </row>
+    <row r="98" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -10627,9 +10633,9 @@
       <c r="L98" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O98" s="162"/>
-    </row>
-    <row r="99" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O98" s="120"/>
+    </row>
+    <row r="99" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -10665,9 +10671,9 @@
       <c r="L99" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O99" s="162"/>
-    </row>
-    <row r="100" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O99" s="120"/>
+    </row>
+    <row r="100" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="9">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -10703,9 +10709,9 @@
       <c r="L100" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O100" s="162"/>
-    </row>
-    <row r="101" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O100" s="120"/>
+    </row>
+    <row r="101" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="9">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -10741,9 +10747,9 @@
       <c r="L101" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O101" s="162"/>
-    </row>
-    <row r="102" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O101" s="120"/>
+    </row>
+    <row r="102" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="9">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -10779,9 +10785,9 @@
       <c r="L102" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O102" s="162"/>
-    </row>
-    <row r="103" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O102" s="120"/>
+    </row>
+    <row r="103" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -10817,9 +10823,9 @@
       <c r="L103" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O103" s="162"/>
-    </row>
-    <row r="104" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O103" s="120"/>
+    </row>
+    <row r="104" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="9">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -10855,9 +10861,9 @@
       <c r="L104" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O104" s="162"/>
-    </row>
-    <row r="105" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O104" s="120"/>
+    </row>
+    <row r="105" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="9">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -10893,9 +10899,9 @@
       <c r="L105" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O105" s="162"/>
-    </row>
-    <row r="106" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O105" s="120"/>
+    </row>
+    <row r="106" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="9">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -10931,9 +10937,9 @@
       <c r="L106" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O106" s="162"/>
-    </row>
-    <row r="107" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O106" s="120"/>
+    </row>
+    <row r="107" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="9">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -10969,9 +10975,9 @@
       <c r="L107" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O107" s="162"/>
-    </row>
-    <row r="108" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O107" s="120"/>
+    </row>
+    <row r="108" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="9">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -11007,9 +11013,9 @@
       <c r="L108" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O108" s="162"/>
-    </row>
-    <row r="109" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O108" s="120"/>
+    </row>
+    <row r="109" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -11045,9 +11051,9 @@
       <c r="L109" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O109" s="162"/>
-    </row>
-    <row r="110" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O109" s="120"/>
+    </row>
+    <row r="110" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="9">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -11083,9 +11089,9 @@
       <c r="L110" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O110" s="162"/>
-    </row>
-    <row r="111" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O110" s="120"/>
+    </row>
+    <row r="111" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="9">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -11121,9 +11127,9 @@
       <c r="L111" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O111" s="162"/>
-    </row>
-    <row r="112" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O111" s="120"/>
+    </row>
+    <row r="112" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="9">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -11159,9 +11165,9 @@
       <c r="L112" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O112" s="162"/>
-    </row>
-    <row r="113" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O112" s="120"/>
+    </row>
+    <row r="113" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="9">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -11197,9 +11203,9 @@
       <c r="L113" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O113" s="162"/>
-    </row>
-    <row r="114" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O113" s="120"/>
+    </row>
+    <row r="114" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="9">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -11235,9 +11241,9 @@
       <c r="L114" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O114" s="162"/>
-    </row>
-    <row r="115" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O114" s="120"/>
+    </row>
+    <row r="115" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="9">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -11273,9 +11279,9 @@
       <c r="L115" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O115" s="162"/>
-    </row>
-    <row r="116" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O115" s="120"/>
+    </row>
+    <row r="116" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="9">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -11311,9 +11317,9 @@
       <c r="L116" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O116" s="162"/>
-    </row>
-    <row r="117" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O116" s="120"/>
+    </row>
+    <row r="117" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="9">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -11349,9 +11355,9 @@
       <c r="L117" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O117" s="162"/>
-    </row>
-    <row r="118" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O117" s="120"/>
+    </row>
+    <row r="118" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -11387,9 +11393,9 @@
       <c r="L118" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O118" s="162"/>
-    </row>
-    <row r="119" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O118" s="120"/>
+    </row>
+    <row r="119" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="9">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -11425,9 +11431,9 @@
       <c r="L119" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O119" s="162"/>
-    </row>
-    <row r="120" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O119" s="120"/>
+    </row>
+    <row r="120" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="9">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -11463,9 +11469,9 @@
       <c r="L120" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O120" s="162"/>
-    </row>
-    <row r="121" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O120" s="120"/>
+    </row>
+    <row r="121" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="9">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -11501,9 +11507,9 @@
       <c r="L121" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O121" s="162"/>
-    </row>
-    <row r="122" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O121" s="120"/>
+    </row>
+    <row r="122" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="9">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -11539,9 +11545,9 @@
       <c r="L122" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O122" s="162"/>
-    </row>
-    <row r="123" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O122" s="120"/>
+    </row>
+    <row r="123" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="9">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -11577,9 +11583,9 @@
       <c r="L123" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O123" s="162"/>
-    </row>
-    <row r="124" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O123" s="120"/>
+    </row>
+    <row r="124" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="9">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -11615,9 +11621,9 @@
       <c r="L124" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O124" s="162"/>
-    </row>
-    <row r="125" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O124" s="120"/>
+    </row>
+    <row r="125" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -11653,9 +11659,9 @@
       <c r="L125" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O125" s="162"/>
-    </row>
-    <row r="126" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O125" s="120"/>
+    </row>
+    <row r="126" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="9">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -11691,9 +11697,9 @@
       <c r="L126" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O126" s="162"/>
-    </row>
-    <row r="127" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O126" s="120"/>
+    </row>
+    <row r="127" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="9">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -11729,9 +11735,9 @@
       <c r="L127" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O127" s="162"/>
-    </row>
-    <row r="128" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O127" s="120"/>
+    </row>
+    <row r="128" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="9">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -11767,9 +11773,9 @@
       <c r="L128" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O128" s="162"/>
-    </row>
-    <row r="129" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O128" s="120"/>
+    </row>
+    <row r="129" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="9">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -11805,9 +11811,9 @@
       <c r="L129" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O129" s="162"/>
-    </row>
-    <row r="130" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O129" s="120"/>
+    </row>
+    <row r="130" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="9">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -11843,9 +11849,9 @@
       <c r="L130" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O130" s="162"/>
-    </row>
-    <row r="131" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O130" s="120"/>
+    </row>
+    <row r="131" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="9">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -11881,9 +11887,9 @@
       <c r="L131" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O131" s="162"/>
-    </row>
-    <row r="132" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O131" s="120"/>
+    </row>
+    <row r="132" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="9">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -11919,9 +11925,9 @@
       <c r="L132" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O132" s="162"/>
-    </row>
-    <row r="133" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O132" s="120"/>
+    </row>
+    <row r="133" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="9">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -11957,9 +11963,9 @@
       <c r="L133" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O133" s="162"/>
-    </row>
-    <row r="134" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O133" s="120"/>
+    </row>
+    <row r="134" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="9">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -11995,9 +12001,9 @@
       <c r="L134" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O134" s="162"/>
-    </row>
-    <row r="135" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O134" s="120"/>
+    </row>
+    <row r="135" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="9">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -12033,9 +12039,9 @@
       <c r="L135" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O135" s="162"/>
-    </row>
-    <row r="136" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O135" s="120"/>
+    </row>
+    <row r="136" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="9">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -12071,9 +12077,9 @@
       <c r="L136" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O136" s="162"/>
-    </row>
-    <row r="137" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O136" s="120"/>
+    </row>
+    <row r="137" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -12109,9 +12115,9 @@
       <c r="L137" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O137" s="162"/>
-    </row>
-    <row r="138" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O137" s="120"/>
+    </row>
+    <row r="138" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="9">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -12147,9 +12153,9 @@
       <c r="L138" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O138" s="162"/>
-    </row>
-    <row r="139" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O138" s="120"/>
+    </row>
+    <row r="139" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="9">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -12185,9 +12191,9 @@
       <c r="L139" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O139" s="162"/>
-    </row>
-    <row r="140" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O139" s="120"/>
+    </row>
+    <row r="140" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="9">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -12223,9 +12229,9 @@
       <c r="L140" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O140" s="162"/>
-    </row>
-    <row r="141" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O140" s="120"/>
+    </row>
+    <row r="141" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -12261,9 +12267,9 @@
       <c r="L141" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O141" s="162"/>
-    </row>
-    <row r="142" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O141" s="120"/>
+    </row>
+    <row r="142" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="9">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -12299,9 +12305,9 @@
       <c r="L142" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O142" s="162"/>
-    </row>
-    <row r="143" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O142" s="120"/>
+    </row>
+    <row r="143" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="9">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -12337,9 +12343,9 @@
       <c r="L143" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O143" s="162"/>
-    </row>
-    <row r="144" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O143" s="120"/>
+    </row>
+    <row r="144" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="9">
         <f t="shared" si="3"/>
         <v>119</v>
@@ -12375,9 +12381,9 @@
       <c r="L144" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O144" s="162"/>
-    </row>
-    <row r="145" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O144" s="120"/>
+    </row>
+    <row r="145" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="9">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -12413,9 +12419,9 @@
       <c r="L145" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O145" s="162"/>
-    </row>
-    <row r="146" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O145" s="120"/>
+    </row>
+    <row r="146" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="9">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -12451,9 +12457,9 @@
       <c r="L146" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O146" s="162"/>
-    </row>
-    <row r="147" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O146" s="120"/>
+    </row>
+    <row r="147" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="9">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -12489,9 +12495,9 @@
       <c r="L147" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O147" s="162"/>
-    </row>
-    <row r="148" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O147" s="120"/>
+    </row>
+    <row r="148" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="9">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -12527,9 +12533,9 @@
       <c r="L148" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O148" s="162"/>
-    </row>
-    <row r="149" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O148" s="120"/>
+    </row>
+    <row r="149" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="9">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -12565,9 +12571,9 @@
       <c r="L149" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O149" s="162"/>
-    </row>
-    <row r="150" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O149" s="120"/>
+    </row>
+    <row r="150" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="9">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -12603,9 +12609,9 @@
       <c r="L150" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O150" s="162"/>
-    </row>
-    <row r="151" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O150" s="120"/>
+    </row>
+    <row r="151" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="9">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -12641,9 +12647,9 @@
       <c r="L151" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O151" s="162"/>
-    </row>
-    <row r="152" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O151" s="120"/>
+    </row>
+    <row r="152" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="9">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -12679,9 +12685,9 @@
       <c r="L152" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O152" s="162"/>
-    </row>
-    <row r="153" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O152" s="120"/>
+    </row>
+    <row r="153" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="9">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -12717,9 +12723,9 @@
       <c r="L153" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O153" s="162"/>
-    </row>
-    <row r="154" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O153" s="120"/>
+    </row>
+    <row r="154" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="9">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -12755,9 +12761,9 @@
       <c r="L154" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O154" s="162"/>
-    </row>
-    <row r="155" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O154" s="120"/>
+    </row>
+    <row r="155" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="9">
         <f t="shared" ref="B155:B183" si="5">IF(G155&lt;&gt;"",ROW()-25,"")</f>
         <v>130</v>
@@ -12793,9 +12799,9 @@
       <c r="L155" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O155" s="162"/>
-    </row>
-    <row r="156" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O155" s="120"/>
+    </row>
+    <row r="156" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="9">
         <f t="shared" si="5"/>
         <v>131</v>
@@ -12831,9 +12837,9 @@
       <c r="L156" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="O156" s="162"/>
-    </row>
-    <row r="157" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O156" s="120"/>
+    </row>
+    <row r="157" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="9">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -12869,9 +12875,9 @@
       <c r="L157" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O157" s="162"/>
-    </row>
-    <row r="158" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O157" s="120"/>
+    </row>
+    <row r="158" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="9">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -12907,9 +12913,9 @@
       <c r="L158" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O158" s="162"/>
-    </row>
-    <row r="159" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O158" s="120"/>
+    </row>
+    <row r="159" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -12945,9 +12951,9 @@
       <c r="L159" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O159" s="162"/>
-    </row>
-    <row r="160" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O159" s="120"/>
+    </row>
+    <row r="160" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="9">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -12983,9 +12989,9 @@
       <c r="L160" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O160" s="162"/>
-    </row>
-    <row r="161" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O160" s="120"/>
+    </row>
+    <row r="161" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="9">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -13021,9 +13027,9 @@
       <c r="L161" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O161" s="162"/>
-    </row>
-    <row r="162" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O161" s="120"/>
+    </row>
+    <row r="162" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -13059,9 +13065,9 @@
       <c r="L162" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O162" s="162"/>
-    </row>
-    <row r="163" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O162" s="120"/>
+    </row>
+    <row r="163" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="9">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -13097,9 +13103,9 @@
       <c r="L163" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O163" s="162"/>
-    </row>
-    <row r="164" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O163" s="120"/>
+    </row>
+    <row r="164" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9">
         <f t="shared" si="5"/>
         <v>139</v>
@@ -13135,9 +13141,9 @@
       <c r="L164" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O164" s="162"/>
-    </row>
-    <row r="165" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O164" s="120"/>
+    </row>
+    <row r="165" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="9">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -13173,9 +13179,9 @@
       <c r="L165" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O165" s="162"/>
-    </row>
-    <row r="166" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O165" s="120"/>
+    </row>
+    <row r="166" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="9">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -13211,9 +13217,9 @@
       <c r="L166" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O166" s="162"/>
-    </row>
-    <row r="167" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O166" s="120"/>
+    </row>
+    <row r="167" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -13249,9 +13255,9 @@
       <c r="L167" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O167" s="162"/>
-    </row>
-    <row r="168" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O167" s="120"/>
+    </row>
+    <row r="168" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -13287,9 +13293,9 @@
       <c r="L168" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O168" s="162"/>
-    </row>
-    <row r="169" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O168" s="120"/>
+    </row>
+    <row r="169" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="9">
         <f t="shared" si="5"/>
         <v>144</v>
@@ -13325,9 +13331,9 @@
       <c r="L169" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O169" s="162"/>
-    </row>
-    <row r="170" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O169" s="120"/>
+    </row>
+    <row r="170" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="9">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -13363,9 +13369,9 @@
       <c r="L170" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O170" s="162"/>
-    </row>
-    <row r="171" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O170" s="120"/>
+    </row>
+    <row r="171" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="9">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -13401,9 +13407,9 @@
       <c r="L171" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O171" s="162"/>
-    </row>
-    <row r="172" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O171" s="120"/>
+    </row>
+    <row r="172" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="9">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -13439,9 +13445,9 @@
       <c r="L172" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O172" s="162"/>
-    </row>
-    <row r="173" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O172" s="120"/>
+    </row>
+    <row r="173" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -13477,9 +13483,9 @@
       <c r="L173" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O173" s="162"/>
-    </row>
-    <row r="174" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O173" s="120"/>
+    </row>
+    <row r="174" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="9">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -13515,9 +13521,9 @@
       <c r="L174" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O174" s="162"/>
-    </row>
-    <row r="175" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O174" s="120"/>
+    </row>
+    <row r="175" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="9">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -13553,9 +13559,9 @@
       <c r="L175" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O175" s="162"/>
-    </row>
-    <row r="176" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O175" s="120"/>
+    </row>
+    <row r="176" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="9">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -13591,9 +13597,9 @@
       <c r="L176" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O176" s="162"/>
-    </row>
-    <row r="177" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O176" s="120"/>
+    </row>
+    <row r="177" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="9">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -13629,9 +13635,9 @@
       <c r="L177" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O177" s="162"/>
-    </row>
-    <row r="178" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O177" s="120"/>
+    </row>
+    <row r="178" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="9">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -13667,9 +13673,9 @@
       <c r="L178" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O178" s="162"/>
-    </row>
-    <row r="179" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O178" s="120"/>
+    </row>
+    <row r="179" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="9">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -13705,9 +13711,9 @@
       <c r="L179" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O179" s="162"/>
-    </row>
-    <row r="180" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O179" s="120"/>
+    </row>
+    <row r="180" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="9">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -13743,9 +13749,9 @@
       <c r="L180" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O180" s="162"/>
-    </row>
-    <row r="181" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O180" s="120"/>
+    </row>
+    <row r="181" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="9">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -13781,9 +13787,9 @@
       <c r="L181" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O181" s="162"/>
-    </row>
-    <row r="182" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O181" s="120"/>
+    </row>
+    <row r="182" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="9">
         <f t="shared" si="5"/>
         <v>157</v>
@@ -13819,9 +13825,9 @@
       <c r="L182" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O182" s="162"/>
-    </row>
-    <row r="183" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O182" s="120"/>
+    </row>
+    <row r="183" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="9">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -13857,9 +13863,9 @@
       <c r="L183" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O183" s="162"/>
-    </row>
-    <row r="184" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O183" s="120"/>
+    </row>
+    <row r="184" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="9">
         <f t="shared" ref="B184:B219" si="6">IF(G184&lt;&gt;"",ROW()-25,"")</f>
         <v>159</v>
@@ -13895,9 +13901,9 @@
       <c r="L184" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O184" s="162"/>
-    </row>
-    <row r="185" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O184" s="120"/>
+    </row>
+    <row r="185" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="9">
         <f t="shared" si="6"/>
         <v>160</v>
@@ -13933,9 +13939,9 @@
       <c r="L185" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O185" s="162"/>
-    </row>
-    <row r="186" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O185" s="120"/>
+    </row>
+    <row r="186" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="9">
         <f t="shared" si="6"/>
         <v>161</v>
@@ -13971,9 +13977,9 @@
       <c r="L186" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O186" s="162"/>
-    </row>
-    <row r="187" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O186" s="120"/>
+    </row>
+    <row r="187" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="9">
         <f t="shared" si="6"/>
         <v>162</v>
@@ -14009,9 +14015,9 @@
       <c r="L187" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O187" s="162"/>
-    </row>
-    <row r="188" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O187" s="120"/>
+    </row>
+    <row r="188" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="9">
         <f t="shared" si="6"/>
         <v>163</v>
@@ -14047,9 +14053,9 @@
       <c r="L188" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O188" s="162"/>
-    </row>
-    <row r="189" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O188" s="120"/>
+    </row>
+    <row r="189" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="9">
         <f t="shared" si="6"/>
         <v>164</v>
@@ -14085,9 +14091,9 @@
       <c r="L189" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O189" s="162"/>
-    </row>
-    <row r="190" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O189" s="120"/>
+    </row>
+    <row r="190" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="9">
         <f t="shared" si="6"/>
         <v>165</v>
@@ -14123,9 +14129,9 @@
       <c r="L190" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O190" s="162"/>
-    </row>
-    <row r="191" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O190" s="120"/>
+    </row>
+    <row r="191" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="9">
         <f t="shared" si="6"/>
         <v>166</v>
@@ -14161,9 +14167,9 @@
       <c r="L191" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O191" s="162"/>
-    </row>
-    <row r="192" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O191" s="120"/>
+    </row>
+    <row r="192" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="9">
         <f t="shared" si="6"/>
         <v>167</v>
@@ -14199,9 +14205,9 @@
       <c r="L192" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O192" s="162"/>
-    </row>
-    <row r="193" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O192" s="120"/>
+    </row>
+    <row r="193" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="9">
         <f t="shared" si="6"/>
         <v>168</v>
@@ -14237,9 +14243,9 @@
       <c r="L193" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O193" s="162"/>
-    </row>
-    <row r="194" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O193" s="120"/>
+    </row>
+    <row r="194" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="9">
         <f t="shared" si="6"/>
         <v>169</v>
@@ -14275,9 +14281,9 @@
       <c r="L194" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O194" s="162"/>
-    </row>
-    <row r="195" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O194" s="120"/>
+    </row>
+    <row r="195" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="9">
         <f t="shared" si="6"/>
         <v>170</v>
@@ -14313,9 +14319,9 @@
       <c r="L195" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O195" s="162"/>
-    </row>
-    <row r="196" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O195" s="120"/>
+    </row>
+    <row r="196" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="9">
         <f t="shared" si="6"/>
         <v>171</v>
@@ -14351,9 +14357,9 @@
       <c r="L196" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O196" s="162"/>
-    </row>
-    <row r="197" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O196" s="120"/>
+    </row>
+    <row r="197" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="9">
         <f t="shared" si="6"/>
         <v>172</v>
@@ -14389,9 +14395,9 @@
       <c r="L197" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O197" s="162"/>
-    </row>
-    <row r="198" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O197" s="120"/>
+    </row>
+    <row r="198" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="9">
         <f t="shared" si="6"/>
         <v>173</v>
@@ -14427,9 +14433,9 @@
       <c r="L198" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O198" s="162"/>
-    </row>
-    <row r="199" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O198" s="120"/>
+    </row>
+    <row r="199" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9">
         <f t="shared" si="6"/>
         <v>174</v>
@@ -14465,9 +14471,9 @@
       <c r="L199" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O199" s="162"/>
-    </row>
-    <row r="200" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O199" s="120"/>
+    </row>
+    <row r="200" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="9">
         <f t="shared" si="6"/>
         <v>175</v>
@@ -14503,9 +14509,9 @@
       <c r="L200" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O200" s="162"/>
-    </row>
-    <row r="201" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O200" s="120"/>
+    </row>
+    <row r="201" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="9">
         <f t="shared" si="6"/>
         <v>176</v>
@@ -14541,9 +14547,9 @@
       <c r="L201" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O201" s="162"/>
-    </row>
-    <row r="202" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O201" s="120"/>
+    </row>
+    <row r="202" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="9">
         <f t="shared" si="6"/>
         <v>177</v>
@@ -14579,9 +14585,9 @@
       <c r="L202" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O202" s="162"/>
-    </row>
-    <row r="203" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O202" s="120"/>
+    </row>
+    <row r="203" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9">
         <f t="shared" si="6"/>
         <v>178</v>
@@ -14617,9 +14623,9 @@
       <c r="L203" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O203" s="162"/>
-    </row>
-    <row r="204" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O203" s="120"/>
+    </row>
+    <row r="204" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9">
         <f t="shared" si="6"/>
         <v>179</v>
@@ -14655,9 +14661,9 @@
       <c r="L204" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O204" s="162"/>
-    </row>
-    <row r="205" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O204" s="120"/>
+    </row>
+    <row r="205" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="9">
         <f t="shared" si="6"/>
         <v>180</v>
@@ -14693,9 +14699,9 @@
       <c r="L205" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O205" s="162"/>
-    </row>
-    <row r="206" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O205" s="120"/>
+    </row>
+    <row r="206" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="9">
         <f t="shared" si="6"/>
         <v>181</v>
@@ -14731,9 +14737,9 @@
       <c r="L206" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O206" s="162"/>
-    </row>
-    <row r="207" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O206" s="120"/>
+    </row>
+    <row r="207" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="9">
         <f t="shared" si="6"/>
         <v>182</v>
@@ -14769,9 +14775,9 @@
       <c r="L207" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O207" s="162"/>
-    </row>
-    <row r="208" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O207" s="120"/>
+    </row>
+    <row r="208" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="9">
         <f t="shared" si="6"/>
         <v>183</v>
@@ -14807,9 +14813,9 @@
       <c r="L208" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O208" s="162"/>
-    </row>
-    <row r="209" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O208" s="120"/>
+    </row>
+    <row r="209" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="9">
         <f t="shared" si="6"/>
         <v>184</v>
@@ -14845,9 +14851,9 @@
       <c r="L209" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O209" s="162"/>
-    </row>
-    <row r="210" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O209" s="120"/>
+    </row>
+    <row r="210" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="9">
         <f t="shared" si="6"/>
         <v>185</v>
@@ -14883,9 +14889,9 @@
       <c r="L210" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O210" s="162"/>
-    </row>
-    <row r="211" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O210" s="120"/>
+    </row>
+    <row r="211" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="9">
         <f t="shared" si="6"/>
         <v>186</v>
@@ -14921,9 +14927,9 @@
       <c r="L211" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O211" s="162"/>
-    </row>
-    <row r="212" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O211" s="120"/>
+    </row>
+    <row r="212" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="9">
         <f t="shared" si="6"/>
         <v>187</v>
@@ -14959,9 +14965,9 @@
       <c r="L212" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O212" s="162"/>
-    </row>
-    <row r="213" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O212" s="120"/>
+    </row>
+    <row r="213" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="9">
         <f t="shared" si="6"/>
         <v>188</v>
@@ -14997,9 +15003,9 @@
       <c r="L213" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O213" s="162"/>
-    </row>
-    <row r="214" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O213" s="120"/>
+    </row>
+    <row r="214" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="9">
         <f t="shared" si="6"/>
         <v>189</v>
@@ -15035,9 +15041,9 @@
       <c r="L214" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O214" s="162"/>
-    </row>
-    <row r="215" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O214" s="120"/>
+    </row>
+    <row r="215" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="9">
         <f t="shared" si="6"/>
         <v>190</v>
@@ -15073,9 +15079,9 @@
       <c r="L215" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O215" s="162"/>
-    </row>
-    <row r="216" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O215" s="120"/>
+    </row>
+    <row r="216" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="9">
         <f t="shared" si="6"/>
         <v>191</v>
@@ -15111,9 +15117,9 @@
       <c r="L216" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O216" s="162"/>
-    </row>
-    <row r="217" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O216" s="120"/>
+    </row>
+    <row r="217" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9">
         <f t="shared" si="6"/>
         <v>192</v>
@@ -15149,9 +15155,9 @@
       <c r="L217" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O217" s="162"/>
-    </row>
-    <row r="218" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O217" s="120"/>
+    </row>
+    <row r="218" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="9">
         <f t="shared" si="6"/>
         <v>193</v>
@@ -15187,9 +15193,9 @@
       <c r="L218" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O218" s="162"/>
-    </row>
-    <row r="219" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O218" s="120"/>
+    </row>
+    <row r="219" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="9">
         <f t="shared" si="6"/>
         <v>194</v>
@@ -15225,7 +15231,7 @@
       <c r="L219" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="O219" s="162"/>
+      <c r="O219" s="120"/>
     </row>
     <row r="220" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="9"/>
@@ -15253,26 +15259,26 @@
       <c r="I221" s="27"/>
       <c r="J221" s="28">
         <f>SUBTOTAL(9,J26:J220)</f>
-        <v>1790557903</v>
+        <v>4263900</v>
       </c>
       <c r="K221" s="28">
         <f>SUBTOTAL(9,K26:K220)</f>
-        <v>179055791</v>
+        <v>426390</v>
       </c>
       <c r="L221" s="29"/>
     </row>
     <row r="222" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="223" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="130" t="s">
+      <c r="B223" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C223" s="131"/>
-      <c r="D223" s="131"/>
-      <c r="E223" s="131"/>
-      <c r="F223" s="131"/>
-      <c r="G223" s="131"/>
-      <c r="H223" s="131"/>
-      <c r="I223" s="131"/>
+      <c r="C223" s="132"/>
+      <c r="D223" s="132"/>
+      <c r="E223" s="132"/>
+      <c r="F223" s="132"/>
+      <c r="G223" s="132"/>
+      <c r="H223" s="132"/>
+      <c r="I223" s="132"/>
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
       <c r="L223" s="24"/>
@@ -15315,7 +15321,7 @@
       <c r="G226" s="15"/>
       <c r="H226" s="85">
         <f>J221</f>
-        <v>1790557903</v>
+        <v>4263900</v>
       </c>
       <c r="I226" s="15"/>
       <c r="L226" s="15"/>
@@ -15330,7 +15336,7 @@
       <c r="G227" s="15"/>
       <c r="H227" s="85">
         <f>K221</f>
-        <v>179055791</v>
+        <v>426390</v>
       </c>
       <c r="I227" s="15"/>
       <c r="L227" s="15"/>
@@ -15356,7 +15362,7 @@
       <c r="H229" s="15"/>
       <c r="I229" s="35" t="str">
         <f>"Bình Chánh,  Ngày   "&amp;M14&amp;IF(N14="Q4","   Tháng   12",IF(N14="Q3", "   Tháng   9   ","   Tháng   "&amp;N14))&amp;"   Năm  "&amp;YEAR(F135)</f>
-        <v>Bình Chánh,  Ngày   31   Tháng   3   Năm  2013</v>
+        <v>Bình Chánh,  Ngày   28   Tháng   2   Năm  2013</v>
       </c>
     </row>
     <row r="230" spans="2:12" x14ac:dyDescent="0.2">
@@ -15407,8 +15413,19 @@
       <c r="L233" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A25:N219"/>
+  <autoFilter ref="A25:N219">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B223:I223"/>
@@ -15424,11 +15441,6 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -15471,23 +15483,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
       <c r="R2" s="11" t="s">
         <v>93</v>
       </c>
@@ -15496,23 +15508,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="146"/>
-      <c r="O3" s="146"/>
-      <c r="P3" s="147"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="146"/>
       <c r="R3" s="11" t="s">
         <v>122</v>
       </c>
@@ -15537,7 +15549,7 @@
       <c r="M4" s="138"/>
       <c r="N4" s="138"/>
       <c r="O4" s="138"/>
-      <c r="P4" s="139"/>
+      <c r="P4" s="147"/>
       <c r="R4" s="11" t="s">
         <v>91</v>
       </c>
@@ -15562,7 +15574,7 @@
       <c r="M5" s="138"/>
       <c r="N5" s="138"/>
       <c r="O5" s="138"/>
-      <c r="P5" s="139"/>
+      <c r="P5" s="147"/>
       <c r="R5" s="11" t="s">
         <v>121</v>
       </c>
@@ -15576,18 +15588,18 @@
       <c r="D6" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="134"/>
-      <c r="O6" s="134"/>
-      <c r="P6" s="135"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="140"/>
       <c r="R6" s="11" t="s">
         <v>92</v>
       </c>
@@ -15601,18 +15613,18 @@
       <c r="D7" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="135"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="140"/>
       <c r="R7" s="11" t="s">
         <v>426</v>
       </c>
@@ -15626,18 +15638,18 @@
       <c r="D8" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="135"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
       <c r="R8" s="11" t="s">
         <v>427</v>
       </c>
@@ -15651,18 +15663,18 @@
       <c r="D9" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="135"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="140"/>
       <c r="R9" s="11" t="s">
         <v>428</v>
       </c>
@@ -15676,18 +15688,18 @@
       <c r="D10" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="135"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="140"/>
       <c r="R10" s="11" t="s">
         <v>429</v>
       </c>
@@ -15710,7 +15722,7 @@
       <c r="M11" s="138"/>
       <c r="N11" s="138"/>
       <c r="O11" s="138"/>
-      <c r="P11" s="139"/>
+      <c r="P11" s="147"/>
       <c r="R11" s="11" t="s">
         <v>430</v>
       </c>
@@ -15733,7 +15745,7 @@
       <c r="M12" s="138"/>
       <c r="N12" s="138"/>
       <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
+      <c r="P12" s="147"/>
       <c r="R12" s="11" t="s">
         <v>104</v>
       </c>
@@ -15765,23 +15777,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="147"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="146"/>
       <c r="R14" s="11" t="s">
         <v>123</v>
       </c>
@@ -15806,7 +15818,7 @@
       <c r="M15" s="138"/>
       <c r="N15" s="138"/>
       <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
+      <c r="P15" s="147"/>
       <c r="R15" s="11" t="s">
         <v>431</v>
       </c>
@@ -15817,21 +15829,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="91"/>
       <c r="C16" s="94"/>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="135"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="140"/>
       <c r="R16" s="11" t="s">
         <v>432</v>
       </c>
@@ -15867,21 +15879,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="140"/>
       <c r="R18" s="11" t="s">
         <v>126</v>
       </c>
@@ -15892,21 +15904,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="91"/>
       <c r="C19" s="92"/>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="135"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="140"/>
       <c r="R19" s="11" t="s">
         <v>433</v>
       </c>
@@ -15917,21 +15929,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
       <c r="C20" s="92"/>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="135"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="140"/>
       <c r="R20" s="11" t="s">
         <v>434</v>
       </c>
@@ -15942,21 +15954,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="91"/>
       <c r="C21" s="92"/>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="135"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="140"/>
       <c r="R21" s="11" t="s">
         <v>435</v>
       </c>
@@ -15967,21 +15979,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="135"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="140"/>
       <c r="R22" s="11" t="s">
         <v>436</v>
       </c>
@@ -15992,21 +16004,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="91"/>
       <c r="C23" s="92"/>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="135"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="140"/>
       <c r="R23" s="11" t="s">
         <v>437</v>
       </c>
@@ -16017,21 +16029,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="91"/>
       <c r="C24" s="92"/>
-      <c r="D24" s="134" t="s">
+      <c r="D24" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="135"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="140"/>
       <c r="R24" s="11" t="s">
         <v>98</v>
       </c>
@@ -16042,21 +16054,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="91"/>
       <c r="C25" s="92"/>
-      <c r="D25" s="134" t="s">
+      <c r="D25" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="135"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="140"/>
       <c r="R25" s="11" t="s">
         <v>125</v>
       </c>
@@ -16067,21 +16079,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
-      <c r="D26" s="134" t="s">
+      <c r="D26" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="135"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="140"/>
       <c r="R26" s="11" t="s">
         <v>438</v>
       </c>
@@ -16129,7 +16141,7 @@
       <c r="M28" s="138"/>
       <c r="N28" s="138"/>
       <c r="O28" s="138"/>
-      <c r="P28" s="139"/>
+      <c r="P28" s="147"/>
       <c r="R28" s="11" t="s">
         <v>440</v>
       </c>
@@ -16140,21 +16152,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="91"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="135"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="140"/>
       <c r="R29" s="11" t="s">
         <v>441</v>
       </c>
@@ -16165,21 +16177,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="91"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="134" t="s">
+      <c r="D30" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="135"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="140"/>
       <c r="R30" s="11" t="s">
         <v>94</v>
       </c>
@@ -16190,21 +16202,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="91"/>
       <c r="C31" s="92"/>
-      <c r="D31" s="134" t="s">
+      <c r="D31" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="135"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="140"/>
       <c r="R31" s="11" t="s">
         <v>101</v>
       </c>
@@ -16215,21 +16227,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="91"/>
       <c r="C32" s="92"/>
-      <c r="D32" s="134" t="s">
+      <c r="D32" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="135"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="140"/>
       <c r="R32" s="11" t="s">
         <v>442</v>
       </c>
@@ -16240,21 +16252,21 @@
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="91"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="140" t="s">
+      <c r="D33" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="140"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="141"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
+      <c r="N33" s="150"/>
+      <c r="O33" s="150"/>
+      <c r="P33" s="151"/>
       <c r="R33" s="11" t="s">
         <v>124</v>
       </c>
@@ -16265,21 +16277,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="97"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="136" t="s">
+      <c r="D34" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="137"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="149"/>
       <c r="R34" s="11" t="s">
         <v>443</v>
       </c>
@@ -16928,6 +16940,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -16942,22 +16970,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16992,23 +17004,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
       <c r="R2" s="59" t="s">
         <v>109</v>
       </c>
@@ -17020,23 +17032,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
       <c r="R3" s="59" t="s">
         <v>107</v>
       </c>
@@ -17049,22 +17061,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="101"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="155"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="157"/>
       <c r="R4" s="59" t="s">
         <v>127</v>
       </c>
@@ -17077,22 +17089,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="101"/>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="157"/>
       <c r="R5" s="59" t="s">
         <v>171</v>
       </c>
@@ -17106,21 +17118,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="101"/>
       <c r="C6" s="102"/>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="159"/>
       <c r="R6" s="59" t="s">
         <v>172</v>
       </c>
@@ -17134,21 +17146,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="101"/>
       <c r="C7" s="102"/>
-      <c r="D7" s="154" t="s">
+      <c r="D7" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="157"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="159"/>
       <c r="R7" s="59" t="s">
         <v>173</v>
       </c>
@@ -17162,21 +17174,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="101"/>
       <c r="C8" s="102"/>
-      <c r="D8" s="154" t="s">
+      <c r="D8" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="159"/>
       <c r="R8" s="59" t="s">
         <v>174</v>
       </c>
@@ -17190,21 +17202,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="101"/>
       <c r="C9" s="102"/>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="159"/>
       <c r="R9" s="59" t="s">
         <v>175</v>
       </c>
@@ -17218,21 +17230,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="101"/>
       <c r="C10" s="102"/>
-      <c r="D10" s="154" t="s">
+      <c r="D10" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
       <c r="R10" s="59" t="s">
         <v>89</v>
       </c>
@@ -17245,22 +17257,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="101"/>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="156"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="157"/>
       <c r="R11" s="59" t="s">
         <v>176</v>
       </c>
@@ -17273,22 +17285,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="101"/>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="157"/>
       <c r="R12" s="59" t="s">
         <v>177</v>
       </c>
@@ -17326,23 +17338,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="150"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
       <c r="R14" s="59" t="s">
         <v>188</v>
       </c>
@@ -17355,22 +17367,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="101"/>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="157"/>
       <c r="R15" s="59" t="s">
         <v>133</v>
       </c>
@@ -17384,21 +17396,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="101"/>
       <c r="C16" s="104"/>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="157"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="159"/>
       <c r="R16" s="59" t="s">
         <v>235</v>
       </c>
@@ -17440,21 +17452,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="101"/>
       <c r="C18" s="102"/>
-      <c r="D18" s="156" t="s">
+      <c r="D18" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="159"/>
       <c r="R18" s="59" t="s">
         <v>237</v>
       </c>
@@ -17468,21 +17480,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="101"/>
       <c r="C19" s="102"/>
-      <c r="D19" s="156" t="s">
+      <c r="D19" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="159"/>
       <c r="R19" s="59" t="s">
         <v>238</v>
       </c>
@@ -17496,21 +17508,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="101"/>
       <c r="C20" s="102"/>
-      <c r="D20" s="156" t="s">
+      <c r="D20" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="159"/>
       <c r="R20" s="59" t="s">
         <v>239</v>
       </c>
@@ -17524,21 +17536,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="101"/>
       <c r="C21" s="102"/>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="159"/>
       <c r="R21" s="59"/>
       <c r="S21" s="90"/>
       <c r="T21" s="90"/>
@@ -17546,21 +17558,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="101"/>
       <c r="C22" s="102"/>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="158" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="159"/>
       <c r="R22" s="59"/>
       <c r="S22" s="90"/>
       <c r="T22" s="90"/>
@@ -17568,21 +17580,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="101"/>
       <c r="C23" s="102"/>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="159"/>
       <c r="R23" s="59"/>
       <c r="S23" s="90"/>
       <c r="T23" s="90"/>
@@ -17590,21 +17602,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="101"/>
       <c r="C24" s="102"/>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="158"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="159"/>
       <c r="R24" s="59"/>
       <c r="S24" s="90"/>
       <c r="T24" s="90"/>
@@ -17612,21 +17624,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="101"/>
       <c r="C25" s="102"/>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="159"/>
       <c r="R25" s="59"/>
       <c r="S25" s="90"/>
       <c r="T25" s="90"/>
@@ -17634,21 +17646,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="101"/>
       <c r="C26" s="102"/>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="159"/>
       <c r="R26" s="59"/>
       <c r="S26" s="90"/>
       <c r="T26" s="90"/>
@@ -17656,21 +17668,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="101"/>
       <c r="C27" s="102"/>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="157"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="159"/>
       <c r="R27" s="59"/>
       <c r="S27" s="90"/>
       <c r="T27" s="90"/>
@@ -17697,22 +17709,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="101"/>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="157"/>
       <c r="R29" s="59"/>
       <c r="S29" s="90"/>
       <c r="T29" s="90"/>
@@ -17720,21 +17732,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="101"/>
       <c r="C30" s="102"/>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159"/>
       <c r="R30" s="59"/>
       <c r="S30" s="90"/>
       <c r="T30" s="90"/>
@@ -17742,21 +17754,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="101"/>
       <c r="C31" s="102"/>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="159"/>
       <c r="R31" s="59"/>
       <c r="S31" s="90"/>
       <c r="T31" s="90"/>
@@ -17764,21 +17776,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="101"/>
       <c r="C32" s="102"/>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="159"/>
       <c r="R32" s="59"/>
       <c r="S32" s="90"/>
       <c r="T32" s="90"/>
@@ -17786,21 +17798,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="101"/>
       <c r="C33" s="102"/>
-      <c r="D33" s="156" t="s">
+      <c r="D33" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="156"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -17808,21 +17820,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
-      <c r="D34" s="158" t="s">
+      <c r="D34" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="158"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="158"/>
-      <c r="P34" s="159"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="152"/>
+      <c r="P34" s="153"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -17830,21 +17842,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="101"/>
       <c r="C35" s="102"/>
-      <c r="D35" s="158" t="s">
+      <c r="D35" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="158"/>
-      <c r="P35" s="159"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="152"/>
+      <c r="P35" s="153"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -17852,21 +17864,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="107"/>
       <c r="C36" s="108"/>
-      <c r="D36" s="160" t="s">
+      <c r="D36" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="160"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="161"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="155"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -17943,14 +17955,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -17963,18 +17979,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
